--- a/AT MAIN BOARD BOM_PLUS_SL_Rev0.2_2019_5_30.xlsx
+++ b/AT MAIN BOARD BOM_PLUS_SL_Rev0.2_2019_5_30.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02_HW\AT MAIN BOARD PCB-2019-5-29\Project Outputs for AT_PLUS_SINGLE\Design outputs\BOM\已经发给ETRON的bom\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\testgit\lerning\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="变更履历 " sheetId="4" r:id="rId1"/>
@@ -155,7 +155,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2224" uniqueCount="1015">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2242" uniqueCount="1017">
   <si>
     <t>C06-01-065</t>
   </si>
@@ -2441,10 +2441,6 @@
   </si>
   <si>
     <t>IC OPAMP Single, 1MHZ, RRIO, 1.8V TO 5 SC70-5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TLV9001TIDCKR</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -4492,6 +4488,46 @@
     <t>L504, L505, L506, L507, L508, L510</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>TLV9001IDCKR</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>TLV9001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Meiryo UI"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>IDCKR</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Meiryo UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>TLV9001IDCKR</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -4500,7 +4536,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4709,6 +4745,12 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -5750,6 +5792,31 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="176" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="58" fontId="19" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5765,15 +5832,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="19" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="58" fontId="19" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5783,22 +5841,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -6223,10 +6265,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:Q191"/>
+  <dimension ref="C4:Q194"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A175" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M203" sqref="M203"/>
+    <sheetView showGridLines="0" topLeftCell="A172" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q196" sqref="Q196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6891,7 +6933,7 @@
     </row>
     <row r="5" spans="3:16" s="43" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C5" s="49" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D5" s="58"/>
       <c r="E5" s="59" t="s">
@@ -6932,14 +6974,14 @@
       </c>
     </row>
     <row r="6" spans="3:16" s="43" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C6" s="240">
+      <c r="C6" s="246">
         <v>43571</v>
       </c>
       <c r="D6" s="62" t="s">
+        <v>644</v>
+      </c>
+      <c r="E6" s="63" t="s">
         <v>645</v>
-      </c>
-      <c r="E6" s="63" t="s">
-        <v>646</v>
       </c>
       <c r="F6" s="64"/>
       <c r="G6" s="64"/>
@@ -6954,12 +6996,12 @@
       <c r="P6" s="65"/>
     </row>
     <row r="7" spans="3:16" s="43" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C7" s="240"/>
-      <c r="D7" s="232" t="s">
+      <c r="C7" s="246"/>
+      <c r="D7" s="241" t="s">
+        <v>646</v>
+      </c>
+      <c r="E7" s="66" t="s">
         <v>647</v>
-      </c>
-      <c r="E7" s="66" t="s">
-        <v>648</v>
       </c>
       <c r="F7" s="18"/>
       <c r="G7" s="18"/>
@@ -6973,25 +7015,25 @@
         <v>1</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="L7" s="22"/>
       <c r="M7" s="19" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="N7" s="47" t="s">
         <v>577</v>
       </c>
       <c r="O7" s="23"/>
       <c r="P7" s="67" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="8" spans="3:16" s="43" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C8" s="240"/>
-      <c r="D8" s="233"/>
+      <c r="C8" s="246"/>
+      <c r="D8" s="242"/>
       <c r="E8" s="66" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
@@ -7005,25 +7047,25 @@
         <v>1</v>
       </c>
       <c r="K8" s="22" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="L8" s="22"/>
       <c r="M8" s="19" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="N8" s="47" t="s">
         <v>578</v>
       </c>
       <c r="O8" s="23"/>
       <c r="P8" s="67" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="9" spans="3:16" s="43" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C9" s="240"/>
-      <c r="D9" s="233"/>
+      <c r="C9" s="246"/>
+      <c r="D9" s="242"/>
       <c r="E9" s="66" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
@@ -7037,144 +7079,144 @@
         <v>1</v>
       </c>
       <c r="K9" s="22" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="L9" s="22"/>
       <c r="M9" s="19" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="N9" s="47" t="s">
         <v>579</v>
       </c>
       <c r="O9" s="23"/>
       <c r="P9" s="67" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="10" spans="3:16" s="43" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C10" s="246"/>
+      <c r="D10" s="242"/>
+      <c r="E10" s="66" t="s">
         <v>651</v>
-      </c>
-    </row>
-    <row r="10" spans="3:16" s="43" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C10" s="240"/>
-      <c r="D10" s="233"/>
-      <c r="E10" s="66" t="s">
-        <v>652</v>
       </c>
       <c r="F10" s="25"/>
       <c r="G10" s="68"/>
       <c r="H10" s="69" t="s">
+        <v>652</v>
+      </c>
+      <c r="I10" s="19" t="s">
         <v>653</v>
-      </c>
-      <c r="I10" s="19" t="s">
-        <v>654</v>
       </c>
       <c r="J10" s="21">
         <v>1</v>
       </c>
       <c r="K10" s="70" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="L10" s="71" t="s">
+        <v>654</v>
+      </c>
+      <c r="M10" s="19" t="s">
         <v>655</v>
       </c>
-      <c r="M10" s="19" t="s">
+      <c r="N10" s="23" t="s">
         <v>656</v>
-      </c>
-      <c r="N10" s="23" t="s">
-        <v>657</v>
       </c>
       <c r="O10" s="23"/>
       <c r="P10" s="67" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="11" spans="3:16" s="43" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C11" s="240"/>
-      <c r="D11" s="233"/>
+      <c r="C11" s="246"/>
+      <c r="D11" s="242"/>
       <c r="E11" s="66" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F11" s="25"/>
       <c r="G11" s="18"/>
       <c r="H11" s="47" t="s">
+        <v>658</v>
+      </c>
+      <c r="I11" s="20" t="s">
         <v>659</v>
-      </c>
-      <c r="I11" s="20" t="s">
-        <v>660</v>
       </c>
       <c r="J11" s="21">
         <v>1</v>
       </c>
       <c r="K11" s="22" t="s">
+        <v>660</v>
+      </c>
+      <c r="L11" s="71" t="s">
         <v>661</v>
-      </c>
-      <c r="L11" s="71" t="s">
-        <v>662</v>
       </c>
       <c r="M11" s="19" t="s">
         <v>20</v>
       </c>
       <c r="N11" s="47" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="O11" s="23"/>
       <c r="P11" s="67" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="12" spans="3:16" s="43" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C12" s="240"/>
-      <c r="D12" s="233"/>
+      <c r="C12" s="246"/>
+      <c r="D12" s="242"/>
       <c r="E12" s="66" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F12" s="25"/>
       <c r="G12" s="18"/>
       <c r="H12" s="47" t="s">
+        <v>664</v>
+      </c>
+      <c r="I12" s="19" t="s">
         <v>665</v>
-      </c>
-      <c r="I12" s="19" t="s">
-        <v>666</v>
       </c>
       <c r="J12" s="21">
         <v>1</v>
       </c>
       <c r="K12" s="22" t="s">
+        <v>660</v>
+      </c>
+      <c r="L12" s="71" t="s">
         <v>661</v>
-      </c>
-      <c r="L12" s="71" t="s">
-        <v>662</v>
       </c>
       <c r="M12" s="19" t="s">
         <v>20</v>
       </c>
       <c r="N12" s="47" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="O12" s="23"/>
       <c r="P12" s="67" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="13" spans="3:16" s="43" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C13" s="240"/>
-      <c r="D13" s="233"/>
+      <c r="C13" s="246"/>
+      <c r="D13" s="242"/>
       <c r="E13" s="66" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F13" s="25"/>
       <c r="G13" s="18"/>
       <c r="H13" s="47" t="s">
+        <v>667</v>
+      </c>
+      <c r="I13" s="19" t="s">
         <v>668</v>
-      </c>
-      <c r="I13" s="19" t="s">
-        <v>669</v>
       </c>
       <c r="J13" s="21">
         <v>1</v>
       </c>
       <c r="K13" s="22" t="s">
+        <v>660</v>
+      </c>
+      <c r="L13" s="71" t="s">
         <v>661</v>
-      </c>
-      <c r="L13" s="71" t="s">
-        <v>662</v>
       </c>
       <c r="M13" s="19" t="s">
         <v>20</v>
@@ -7184,19 +7226,19 @@
       </c>
       <c r="O13" s="23"/>
       <c r="P13" s="67" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="14" spans="3:16" s="43" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C14" s="240"/>
-      <c r="D14" s="233"/>
+      <c r="C14" s="246"/>
+      <c r="D14" s="242"/>
       <c r="E14" s="66" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
       <c r="H14" s="19" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="I14" s="19" t="s">
         <v>605</v>
@@ -7205,58 +7247,58 @@
         <v>2</v>
       </c>
       <c r="K14" s="22" t="s">
+        <v>660</v>
+      </c>
+      <c r="L14" s="22" t="s">
         <v>661</v>
-      </c>
-      <c r="L14" s="22" t="s">
-        <v>662</v>
       </c>
       <c r="M14" s="19" t="s">
         <v>15</v>
       </c>
       <c r="N14" s="23" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="O14" s="23"/>
       <c r="P14" s="67" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="15" spans="3:16" s="43" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="240"/>
-      <c r="D15" s="234"/>
+      <c r="C15" s="246"/>
+      <c r="D15" s="243"/>
       <c r="E15" s="72" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F15" s="73"/>
       <c r="G15" s="73"/>
       <c r="H15" s="74" t="s">
+        <v>673</v>
+      </c>
+      <c r="I15" s="74" t="s">
         <v>674</v>
-      </c>
-      <c r="I15" s="74" t="s">
-        <v>675</v>
       </c>
       <c r="J15" s="75">
         <v>4</v>
       </c>
       <c r="K15" s="76" t="s">
+        <v>660</v>
+      </c>
+      <c r="L15" s="77" t="s">
         <v>661</v>
-      </c>
-      <c r="L15" s="77" t="s">
-        <v>662</v>
       </c>
       <c r="M15" s="74" t="s">
         <v>8</v>
       </c>
       <c r="N15" s="78" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="O15" s="78"/>
       <c r="P15" s="79" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="16" spans="3:16" s="43" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="241"/>
+      <c r="C16" s="247"/>
       <c r="D16" s="80"/>
       <c r="E16" s="81"/>
       <c r="F16" s="82"/>
@@ -7272,84 +7314,84 @@
       <c r="P16" s="88"/>
     </row>
     <row r="17" spans="3:16" s="43" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C17" s="240"/>
+      <c r="C17" s="246"/>
       <c r="D17" s="62" t="s">
+        <v>676</v>
+      </c>
+      <c r="E17" s="89" t="s">
+        <v>657</v>
+      </c>
+      <c r="F17" s="90" t="s">
         <v>677</v>
-      </c>
-      <c r="E17" s="89" t="s">
-        <v>658</v>
-      </c>
-      <c r="F17" s="90" t="s">
-        <v>678</v>
       </c>
       <c r="G17" s="91"/>
       <c r="H17" s="92" t="s">
+        <v>678</v>
+      </c>
+      <c r="I17" s="92" t="s">
         <v>679</v>
-      </c>
-      <c r="I17" s="92" t="s">
-        <v>680</v>
       </c>
       <c r="J17" s="93">
         <v>2</v>
       </c>
       <c r="K17" s="94" t="s">
+        <v>660</v>
+      </c>
+      <c r="L17" s="94" t="s">
         <v>661</v>
-      </c>
-      <c r="L17" s="94" t="s">
-        <v>662</v>
       </c>
       <c r="M17" s="92" t="s">
         <v>20</v>
       </c>
       <c r="N17" s="95" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="O17" s="95"/>
       <c r="P17" s="96"/>
     </row>
     <row r="18" spans="3:16" s="43" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C18" s="240"/>
+      <c r="C18" s="246"/>
       <c r="D18" s="97" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E18" s="66" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G18" s="18"/>
       <c r="H18" s="19" t="s">
+        <v>682</v>
+      </c>
+      <c r="I18" s="19" t="s">
         <v>683</v>
-      </c>
-      <c r="I18" s="19" t="s">
-        <v>684</v>
       </c>
       <c r="J18" s="21">
         <v>2</v>
       </c>
       <c r="K18" s="22" t="s">
+        <v>660</v>
+      </c>
+      <c r="L18" s="22" t="s">
         <v>661</v>
-      </c>
-      <c r="L18" s="22" t="s">
-        <v>662</v>
       </c>
       <c r="M18" s="19" t="s">
         <v>20</v>
       </c>
       <c r="N18" s="23" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="O18" s="23"/>
       <c r="P18" s="98"/>
     </row>
     <row r="19" spans="3:16" s="43" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="240"/>
+      <c r="C19" s="246"/>
       <c r="D19" s="99" t="s">
+        <v>685</v>
+      </c>
+      <c r="E19" s="100" t="s">
         <v>686</v>
-      </c>
-      <c r="E19" s="100" t="s">
-        <v>687</v>
       </c>
       <c r="F19" s="101"/>
       <c r="G19" s="101"/>
@@ -7364,7 +7406,7 @@
       <c r="P19" s="102"/>
     </row>
     <row r="20" spans="3:16" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="C20" s="241"/>
+      <c r="C20" s="247"/>
       <c r="D20" s="103"/>
       <c r="E20" s="81"/>
       <c r="F20" s="82"/>
@@ -7380,31 +7422,31 @@
       <c r="P20" s="107"/>
     </row>
     <row r="21" spans="3:16" ht="24" x14ac:dyDescent="0.25">
-      <c r="C21" s="241"/>
+      <c r="C21" s="247"/>
       <c r="D21" s="108" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E21" s="66" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F21" s="18" t="s">
         <v>192</v>
       </c>
       <c r="G21" s="18"/>
       <c r="H21" s="19" t="s">
+        <v>688</v>
+      </c>
+      <c r="I21" s="19" t="s">
         <v>689</v>
-      </c>
-      <c r="I21" s="19" t="s">
-        <v>690</v>
       </c>
       <c r="J21" s="21">
         <v>1</v>
       </c>
       <c r="K21" s="22" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="L21" s="22" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="M21" s="19" t="s">
         <v>193</v>
@@ -7416,43 +7458,43 @@
       <c r="P21" s="28"/>
     </row>
     <row r="22" spans="3:16" ht="24" x14ac:dyDescent="0.25">
-      <c r="C22" s="241"/>
+      <c r="C22" s="247"/>
       <c r="D22" s="108" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E22" s="66" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F22" s="109"/>
       <c r="G22" s="51"/>
       <c r="H22" s="110" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="I22" s="19" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="J22" s="21">
         <v>1</v>
       </c>
       <c r="K22" s="22" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="L22" s="22" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="M22" s="110" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="N22" s="111" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="O22" s="51"/>
       <c r="P22" s="48" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="23" spans="3:16" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="C23" s="241"/>
+      <c r="C23" s="247"/>
       <c r="D23" s="103"/>
       <c r="E23" s="81"/>
       <c r="F23" s="112"/>
@@ -7468,65 +7510,65 @@
       <c r="P23" s="52"/>
     </row>
     <row r="24" spans="3:16" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="C24" s="241"/>
+      <c r="C24" s="247"/>
       <c r="D24" s="108" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E24" s="66" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F24" s="18" t="s">
         <v>196</v>
       </c>
       <c r="G24" s="18"/>
       <c r="H24" s="18" t="s">
+        <v>695</v>
+      </c>
+      <c r="I24" s="18" t="s">
         <v>696</v>
-      </c>
-      <c r="I24" s="18" t="s">
-        <v>697</v>
       </c>
       <c r="J24" s="22">
         <v>1</v>
       </c>
       <c r="K24" s="22" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="L24" s="22" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="M24" s="18" t="s">
+        <v>697</v>
+      </c>
+      <c r="N24" s="32" t="s">
         <v>698</v>
-      </c>
-      <c r="N24" s="32" t="s">
-        <v>699</v>
       </c>
       <c r="O24" s="32"/>
       <c r="P24" s="36"/>
     </row>
     <row r="25" spans="3:16" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="C25" s="241"/>
+      <c r="C25" s="247"/>
       <c r="D25" s="108" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E25" s="66" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
       <c r="H25" s="18" t="s">
+        <v>695</v>
+      </c>
+      <c r="I25" s="18" t="s">
         <v>696</v>
-      </c>
-      <c r="I25" s="18" t="s">
-        <v>697</v>
       </c>
       <c r="J25" s="22">
         <v>1</v>
       </c>
       <c r="K25" s="22" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="L25" s="115" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="M25" s="18"/>
       <c r="N25" s="116" t="s">
@@ -7534,213 +7576,213 @@
       </c>
       <c r="O25" s="32"/>
       <c r="P25" s="48" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="26" spans="3:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="241"/>
+      <c r="C26" s="247"/>
       <c r="N26" s="83"/>
     </row>
     <row r="27" spans="3:16" ht="24" x14ac:dyDescent="0.25">
-      <c r="C27" s="241"/>
+      <c r="C27" s="247"/>
       <c r="D27" s="108" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E27" s="66" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F27" s="18" t="s">
         <v>54</v>
       </c>
       <c r="G27" s="18"/>
       <c r="H27" s="19" t="s">
+        <v>701</v>
+      </c>
+      <c r="I27" s="19" t="s">
         <v>702</v>
-      </c>
-      <c r="I27" s="19" t="s">
-        <v>703</v>
       </c>
       <c r="J27" s="21">
         <v>4</v>
       </c>
       <c r="K27" s="22" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="L27" s="26" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="M27" s="19" t="s">
         <v>4</v>
       </c>
       <c r="N27" s="23" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="O27" s="23"/>
       <c r="P27" s="28"/>
     </row>
     <row r="28" spans="3:16" ht="24" x14ac:dyDescent="0.25">
-      <c r="C28" s="241"/>
+      <c r="C28" s="247"/>
       <c r="D28" s="108" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E28" s="66" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F28" s="18" t="s">
         <v>54</v>
       </c>
       <c r="G28" s="18"/>
       <c r="H28" s="19" t="s">
+        <v>704</v>
+      </c>
+      <c r="I28" s="110" t="s">
         <v>705</v>
-      </c>
-      <c r="I28" s="110" t="s">
-        <v>706</v>
       </c>
       <c r="J28" s="21">
         <v>4</v>
       </c>
       <c r="K28" s="22" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="L28" s="26" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="M28" s="19" t="s">
         <v>4</v>
       </c>
       <c r="N28" s="23" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="O28" s="23"/>
       <c r="P28" s="28"/>
     </row>
     <row r="29" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C29" s="241"/>
+      <c r="C29" s="247"/>
     </row>
     <row r="30" spans="3:16" ht="24" x14ac:dyDescent="0.25">
-      <c r="C30" s="241"/>
+      <c r="C30" s="247"/>
       <c r="D30" s="108" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E30" s="66" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F30" s="18" t="s">
         <v>55</v>
       </c>
       <c r="G30" s="18"/>
       <c r="H30" s="19" t="s">
+        <v>707</v>
+      </c>
+      <c r="I30" s="19" t="s">
         <v>708</v>
-      </c>
-      <c r="I30" s="19" t="s">
-        <v>709</v>
       </c>
       <c r="J30" s="117">
         <v>4</v>
       </c>
       <c r="K30" s="22" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="L30" s="26" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="M30" s="19" t="s">
         <v>4</v>
       </c>
       <c r="N30" s="23" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="O30" s="23"/>
       <c r="P30" s="28"/>
     </row>
     <row r="31" spans="3:16" ht="24" x14ac:dyDescent="0.25">
-      <c r="C31" s="241"/>
+      <c r="C31" s="247"/>
       <c r="D31" s="108" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E31" s="66" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F31" s="18" t="s">
         <v>55</v>
       </c>
       <c r="G31" s="18"/>
       <c r="H31" s="19" t="s">
+        <v>710</v>
+      </c>
+      <c r="I31" s="110" t="s">
         <v>711</v>
-      </c>
-      <c r="I31" s="110" t="s">
-        <v>712</v>
       </c>
       <c r="J31" s="118">
         <v>2</v>
       </c>
       <c r="K31" s="22" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="L31" s="26" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="M31" s="19" t="s">
         <v>4</v>
       </c>
       <c r="N31" s="23" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="O31" s="23"/>
       <c r="P31" s="28"/>
     </row>
     <row r="32" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C32" s="241"/>
+      <c r="C32" s="247"/>
     </row>
     <row r="33" spans="3:16" ht="24" x14ac:dyDescent="0.25">
-      <c r="C33" s="241"/>
+      <c r="C33" s="247"/>
       <c r="D33" s="108" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E33" s="66" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F33" s="18" t="s">
         <v>64</v>
       </c>
       <c r="G33" s="18"/>
       <c r="H33" s="19" t="s">
+        <v>713</v>
+      </c>
+      <c r="I33" s="19" t="s">
         <v>714</v>
-      </c>
-      <c r="I33" s="19" t="s">
-        <v>715</v>
       </c>
       <c r="J33" s="21">
         <v>5</v>
       </c>
       <c r="K33" s="22" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="L33" s="26" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="M33" s="19" t="s">
         <v>4</v>
       </c>
       <c r="N33" s="23" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="O33" s="23"/>
       <c r="P33" s="28"/>
     </row>
     <row r="34" spans="3:16" ht="24" x14ac:dyDescent="0.25">
-      <c r="C34" s="241"/>
+      <c r="C34" s="247"/>
       <c r="D34" s="108" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E34" s="66" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F34" s="18" t="s">
         <v>64</v>
       </c>
       <c r="G34" s="18"/>
       <c r="H34" s="19" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="I34" s="119" t="s">
         <v>568</v>
@@ -7749,49 +7791,49 @@
         <v>4</v>
       </c>
       <c r="K34" s="22" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="L34" s="26" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="M34" s="19" t="s">
         <v>4</v>
       </c>
       <c r="N34" s="23" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="O34" s="23"/>
       <c r="P34" s="28"/>
     </row>
     <row r="35" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C35" s="241"/>
+      <c r="C35" s="247"/>
     </row>
     <row r="36" spans="3:16" ht="48" x14ac:dyDescent="0.25">
-      <c r="C36" s="241"/>
+      <c r="C36" s="247"/>
       <c r="D36" s="108" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E36" s="66" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F36" s="18" t="s">
         <v>67</v>
       </c>
       <c r="G36" s="18"/>
       <c r="H36" s="19" t="s">
+        <v>717</v>
+      </c>
+      <c r="I36" s="19" t="s">
         <v>718</v>
-      </c>
-      <c r="I36" s="19" t="s">
-        <v>719</v>
       </c>
       <c r="J36" s="21">
         <v>13</v>
       </c>
       <c r="K36" s="22" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="L36" s="26" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="M36" s="19" t="s">
         <v>4</v>
@@ -7803,31 +7845,31 @@
       <c r="P36" s="28"/>
     </row>
     <row r="37" spans="3:16" ht="48" x14ac:dyDescent="0.25">
-      <c r="C37" s="241"/>
+      <c r="C37" s="247"/>
       <c r="D37" s="108" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E37" s="66" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F37" s="18" t="s">
         <v>67</v>
       </c>
       <c r="G37" s="18"/>
       <c r="H37" s="19" t="s">
+        <v>719</v>
+      </c>
+      <c r="I37" s="19" t="s">
         <v>720</v>
-      </c>
-      <c r="I37" s="19" t="s">
-        <v>721</v>
       </c>
       <c r="J37" s="118">
         <v>14</v>
       </c>
       <c r="K37" s="22" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="L37" s="26" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="M37" s="19" t="s">
         <v>4</v>
@@ -7839,133 +7881,133 @@
       <c r="P37" s="28"/>
     </row>
     <row r="38" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C38" s="241"/>
+      <c r="C38" s="247"/>
     </row>
     <row r="39" spans="3:16" ht="144" x14ac:dyDescent="0.25">
-      <c r="C39" s="241"/>
+      <c r="C39" s="247"/>
       <c r="D39" s="108" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E39" s="66" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F39" s="18" t="s">
         <v>69</v>
       </c>
       <c r="G39" s="18"/>
       <c r="H39" s="19" t="s">
+        <v>721</v>
+      </c>
+      <c r="I39" s="19" t="s">
         <v>722</v>
-      </c>
-      <c r="I39" s="19" t="s">
-        <v>723</v>
       </c>
       <c r="J39" s="21">
         <v>46</v>
       </c>
       <c r="K39" s="22" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="L39" s="26" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="M39" s="19" t="s">
         <v>4</v>
       </c>
       <c r="N39" s="23" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="O39" s="23"/>
       <c r="P39" s="28"/>
     </row>
     <row r="40" spans="3:16" ht="144" x14ac:dyDescent="0.25">
-      <c r="C40" s="241"/>
+      <c r="C40" s="247"/>
       <c r="D40" s="108" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E40" s="66" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F40" s="18" t="s">
         <v>69</v>
       </c>
       <c r="G40" s="18"/>
       <c r="H40" s="19" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="I40" s="19" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="J40" s="118">
         <v>48</v>
       </c>
       <c r="K40" s="22" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="L40" s="26" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="M40" s="19" t="s">
         <v>4</v>
       </c>
       <c r="N40" s="23" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="O40" s="23"/>
       <c r="P40" s="28"/>
     </row>
     <row r="41" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C41" s="241"/>
+      <c r="C41" s="247"/>
     </row>
     <row r="42" spans="3:16" ht="36" x14ac:dyDescent="0.25">
-      <c r="C42" s="241"/>
+      <c r="C42" s="247"/>
       <c r="D42" s="108" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E42" s="66" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F42" s="18" t="s">
         <v>70</v>
       </c>
       <c r="G42" s="18"/>
       <c r="H42" s="19" t="s">
+        <v>725</v>
+      </c>
+      <c r="I42" s="19" t="s">
         <v>726</v>
-      </c>
-      <c r="I42" s="19" t="s">
-        <v>727</v>
       </c>
       <c r="J42" s="21">
         <v>10</v>
       </c>
       <c r="K42" s="22" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="L42" s="26" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="M42" s="19" t="s">
         <v>4</v>
       </c>
       <c r="N42" s="23" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="O42" s="23"/>
       <c r="P42" s="28"/>
     </row>
     <row r="43" spans="3:16" ht="24" x14ac:dyDescent="0.25">
-      <c r="C43" s="241"/>
+      <c r="C43" s="247"/>
       <c r="D43" s="108" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E43" s="66" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F43" s="18" t="s">
         <v>70</v>
       </c>
       <c r="G43" s="18"/>
       <c r="H43" s="19" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="I43" s="110" t="s">
         <v>571</v>
@@ -7974,49 +8016,49 @@
         <v>7</v>
       </c>
       <c r="K43" s="22" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="L43" s="26" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="M43" s="19" t="s">
         <v>4</v>
       </c>
       <c r="N43" s="23" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="O43" s="23"/>
       <c r="P43" s="28"/>
     </row>
     <row r="44" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C44" s="241"/>
+      <c r="C44" s="247"/>
     </row>
     <row r="45" spans="3:16" ht="24" x14ac:dyDescent="0.25">
-      <c r="C45" s="241"/>
+      <c r="C45" s="247"/>
       <c r="D45" s="108" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E45" s="66" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F45" s="18" t="s">
         <v>178</v>
       </c>
       <c r="G45" s="18"/>
       <c r="H45" s="19" t="s">
+        <v>730</v>
+      </c>
+      <c r="I45" s="19" t="s">
         <v>731</v>
-      </c>
-      <c r="I45" s="19" t="s">
-        <v>732</v>
       </c>
       <c r="J45" s="21">
         <v>4</v>
       </c>
       <c r="K45" s="22" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="L45" s="26" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="M45" s="19" t="s">
         <v>179</v>
@@ -8028,31 +8070,31 @@
       <c r="P45" s="28"/>
     </row>
     <row r="46" spans="3:16" ht="24" x14ac:dyDescent="0.25">
-      <c r="C46" s="241"/>
+      <c r="C46" s="247"/>
       <c r="D46" s="108" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E46" s="66" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F46" s="18" t="s">
         <v>178</v>
       </c>
       <c r="G46" s="18"/>
       <c r="H46" s="19" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="I46" s="19" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="J46" s="118">
         <v>7</v>
       </c>
       <c r="K46" s="22" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="L46" s="26" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="M46" s="19" t="s">
         <v>179</v>
@@ -8064,109 +8106,109 @@
       <c r="P46" s="28"/>
     </row>
     <row r="47" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C47" s="241"/>
+      <c r="C47" s="247"/>
     </row>
     <row r="48" spans="3:16" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="C48" s="241"/>
+      <c r="C48" s="247"/>
       <c r="D48" s="108" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E48" s="66" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F48" s="25" t="s">
         <v>95</v>
       </c>
       <c r="G48" s="25"/>
       <c r="H48" s="25" t="s">
+        <v>734</v>
+      </c>
+      <c r="I48" s="25" t="s">
         <v>735</v>
-      </c>
-      <c r="I48" s="25" t="s">
-        <v>736</v>
       </c>
       <c r="J48" s="26">
         <v>3</v>
       </c>
       <c r="K48" s="26" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="L48" s="26" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="M48" s="25" t="s">
+        <v>736</v>
+      </c>
+      <c r="N48" s="27" t="s">
         <v>737</v>
-      </c>
-      <c r="N48" s="27" t="s">
-        <v>738</v>
       </c>
       <c r="O48" s="27"/>
       <c r="P48" s="28"/>
     </row>
     <row r="49" spans="3:16" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="C49" s="241"/>
+      <c r="C49" s="247"/>
       <c r="D49" s="108" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E49" s="66" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F49" s="25" t="s">
         <v>95</v>
       </c>
       <c r="G49" s="25"/>
       <c r="H49" s="25" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="I49" s="20" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="J49" s="120">
         <v>4</v>
       </c>
       <c r="K49" s="26" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="L49" s="26" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="M49" s="25" t="s">
+        <v>736</v>
+      </c>
+      <c r="N49" s="27" t="s">
         <v>737</v>
-      </c>
-      <c r="N49" s="27" t="s">
-        <v>738</v>
       </c>
       <c r="O49" s="27"/>
       <c r="P49" s="28"/>
     </row>
     <row r="50" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C50" s="241"/>
+      <c r="C50" s="247"/>
     </row>
     <row r="51" spans="3:16" ht="48" x14ac:dyDescent="0.25">
-      <c r="C51" s="241"/>
+      <c r="C51" s="247"/>
       <c r="D51" s="108" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E51" s="66" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F51" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G51" s="18"/>
       <c r="H51" s="19" t="s">
+        <v>739</v>
+      </c>
+      <c r="I51" s="19" t="s">
         <v>740</v>
-      </c>
-      <c r="I51" s="19" t="s">
-        <v>741</v>
       </c>
       <c r="J51" s="21">
         <v>15</v>
       </c>
       <c r="K51" s="22" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="L51" s="22" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="M51" s="19" t="s">
         <v>20</v>
@@ -8178,19 +8220,19 @@
       <c r="P51" s="28"/>
     </row>
     <row r="52" spans="3:16" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C52" s="241"/>
+      <c r="C52" s="247"/>
       <c r="D52" s="108" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E52" s="66" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F52" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G52" s="18"/>
       <c r="H52" s="19" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="I52" s="119" t="s">
         <v>585</v>
@@ -8199,10 +8241,10 @@
         <v>10</v>
       </c>
       <c r="K52" s="22" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="L52" s="22" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="M52" s="19" t="s">
         <v>20</v>
@@ -8214,112 +8256,112 @@
       <c r="P52" s="28"/>
     </row>
     <row r="53" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C53" s="241"/>
+      <c r="C53" s="247"/>
     </row>
     <row r="54" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C54" s="241"/>
+      <c r="C54" s="247"/>
     </row>
     <row r="55" spans="3:16" ht="24" x14ac:dyDescent="0.25">
-      <c r="C55" s="241"/>
+      <c r="C55" s="247"/>
       <c r="D55" s="108" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E55" s="66" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F55" s="25" t="s">
         <v>22</v>
       </c>
       <c r="G55" s="18"/>
       <c r="H55" s="19" t="s">
+        <v>741</v>
+      </c>
+      <c r="I55" s="19" t="s">
         <v>742</v>
-      </c>
-      <c r="I55" s="19" t="s">
-        <v>743</v>
       </c>
       <c r="J55" s="21">
         <v>7</v>
       </c>
       <c r="K55" s="22" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="L55" s="22" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="M55" s="19" t="s">
         <v>20</v>
       </c>
       <c r="N55" s="23" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="O55" s="23"/>
       <c r="P55" s="28"/>
     </row>
     <row r="56" spans="3:16" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C56" s="241"/>
+      <c r="C56" s="247"/>
       <c r="D56" s="108" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E56" s="66" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F56" s="25" t="s">
         <v>22</v>
       </c>
       <c r="G56" s="18"/>
       <c r="H56" s="19" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="I56" s="20" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="J56" s="121">
         <v>12</v>
       </c>
       <c r="K56" s="22" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="L56" s="22" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="M56" s="19" t="s">
         <v>20</v>
       </c>
       <c r="N56" s="23" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="O56" s="23"/>
       <c r="P56" s="28"/>
     </row>
     <row r="57" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C57" s="241"/>
+      <c r="C57" s="247"/>
     </row>
     <row r="58" spans="3:16" ht="96" x14ac:dyDescent="0.25">
-      <c r="C58" s="241"/>
+      <c r="C58" s="247"/>
       <c r="D58" s="108" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E58" s="66" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F58" s="25" t="s">
         <v>23</v>
       </c>
       <c r="G58" s="18"/>
       <c r="H58" s="19" t="s">
+        <v>745</v>
+      </c>
+      <c r="I58" s="19" t="s">
         <v>746</v>
-      </c>
-      <c r="I58" s="19" t="s">
-        <v>747</v>
       </c>
       <c r="J58" s="21">
         <v>32</v>
       </c>
       <c r="K58" s="22" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="L58" s="22" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="M58" s="19" t="s">
         <v>20</v>
@@ -8331,31 +8373,31 @@
       <c r="P58" s="28"/>
     </row>
     <row r="59" spans="3:16" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C59" s="241"/>
+      <c r="C59" s="247"/>
       <c r="D59" s="108" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E59" s="66" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F59" s="25" t="s">
         <v>23</v>
       </c>
       <c r="G59" s="18"/>
       <c r="H59" s="19" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="I59" s="19" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="J59" s="118">
         <v>34</v>
       </c>
       <c r="K59" s="22" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="L59" s="22" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="M59" s="19" t="s">
         <v>20</v>
@@ -8367,7 +8409,7 @@
       <c r="P59" s="28"/>
     </row>
     <row r="60" spans="3:16" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="C60" s="241"/>
+      <c r="C60" s="247"/>
       <c r="D60" s="103"/>
       <c r="E60" s="81"/>
       <c r="F60" s="82"/>
@@ -8383,55 +8425,55 @@
       <c r="P60" s="107"/>
     </row>
     <row r="61" spans="3:16" ht="36" x14ac:dyDescent="0.25">
-      <c r="C61" s="241"/>
+      <c r="C61" s="247"/>
       <c r="D61" s="108" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E61" s="66" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F61" s="25" t="s">
         <v>32</v>
       </c>
       <c r="G61" s="18"/>
       <c r="H61" s="19" t="s">
+        <v>748</v>
+      </c>
+      <c r="I61" s="19" t="s">
         <v>749</v>
-      </c>
-      <c r="I61" s="19" t="s">
-        <v>750</v>
       </c>
       <c r="J61" s="21">
         <v>9</v>
       </c>
       <c r="K61" s="22" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="L61" s="26" t="s">
+        <v>654</v>
+      </c>
+      <c r="M61" s="19" t="s">
         <v>655</v>
       </c>
-      <c r="M61" s="19" t="s">
-        <v>656</v>
-      </c>
       <c r="N61" s="23" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="O61" s="23"/>
       <c r="P61" s="28"/>
     </row>
     <row r="62" spans="3:16" ht="24" x14ac:dyDescent="0.25">
-      <c r="C62" s="241"/>
+      <c r="C62" s="247"/>
       <c r="D62" s="108" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E62" s="66" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F62" s="25" t="s">
         <v>32</v>
       </c>
       <c r="G62" s="18"/>
       <c r="H62" s="19" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="I62" s="119" t="s">
         <v>597</v>
@@ -8440,151 +8482,151 @@
         <v>5</v>
       </c>
       <c r="K62" s="22" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="L62" s="26" t="s">
+        <v>654</v>
+      </c>
+      <c r="M62" s="19" t="s">
         <v>655</v>
       </c>
-      <c r="M62" s="19" t="s">
-        <v>656</v>
-      </c>
       <c r="N62" s="23" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="O62" s="23"/>
       <c r="P62" s="28"/>
     </row>
     <row r="63" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C63" s="241"/>
+      <c r="C63" s="247"/>
     </row>
     <row r="64" spans="3:16" ht="24" x14ac:dyDescent="0.25">
-      <c r="C64" s="241"/>
+      <c r="C64" s="247"/>
       <c r="D64" s="108" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E64" s="66" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F64" s="25" t="s">
         <v>26</v>
       </c>
       <c r="G64" s="18"/>
       <c r="H64" s="19" t="s">
+        <v>751</v>
+      </c>
+      <c r="I64" s="19" t="s">
         <v>752</v>
-      </c>
-      <c r="I64" s="19" t="s">
-        <v>753</v>
       </c>
       <c r="J64" s="21">
         <v>6</v>
       </c>
       <c r="K64" s="22" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="L64" s="22" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="M64" s="19" t="s">
         <v>20</v>
       </c>
       <c r="N64" s="23" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="O64" s="23"/>
       <c r="P64" s="28"/>
     </row>
     <row r="65" spans="3:16" ht="24" x14ac:dyDescent="0.25">
-      <c r="C65" s="241"/>
+      <c r="C65" s="247"/>
       <c r="D65" s="108" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E65" s="66" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F65" s="25" t="s">
         <v>26</v>
       </c>
       <c r="G65" s="18"/>
       <c r="H65" s="19" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I65" s="110" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="J65" s="118">
         <v>5</v>
       </c>
       <c r="K65" s="22" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="L65" s="22" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="M65" s="19" t="s">
         <v>20</v>
       </c>
       <c r="N65" s="23" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="O65" s="23"/>
       <c r="P65" s="28"/>
     </row>
     <row r="66" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C66" s="241"/>
+      <c r="C66" s="247"/>
     </row>
     <row r="67" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C67" s="241"/>
+      <c r="C67" s="247"/>
     </row>
     <row r="68" spans="3:16" ht="24" x14ac:dyDescent="0.25">
-      <c r="C68" s="241"/>
+      <c r="C68" s="247"/>
       <c r="D68" s="108" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E68" s="66" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F68" s="25" t="s">
         <v>31</v>
       </c>
       <c r="G68" s="18"/>
       <c r="H68" s="19" t="s">
+        <v>755</v>
+      </c>
+      <c r="I68" s="19" t="s">
         <v>756</v>
-      </c>
-      <c r="I68" s="19" t="s">
-        <v>757</v>
       </c>
       <c r="J68" s="21">
         <v>7</v>
       </c>
       <c r="K68" s="22" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="L68" s="22" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="M68" s="19" t="s">
         <v>20</v>
       </c>
       <c r="N68" s="23" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="O68" s="23"/>
       <c r="P68" s="28"/>
     </row>
     <row r="69" spans="3:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="C69" s="241"/>
+      <c r="C69" s="247"/>
       <c r="D69" s="108" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E69" s="66" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F69" s="25" t="s">
         <v>31</v>
       </c>
       <c r="G69" s="18"/>
       <c r="H69" s="19" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="I69" s="119" t="s">
         <v>593</v>
@@ -8593,97 +8635,97 @@
         <v>6</v>
       </c>
       <c r="K69" s="22" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="L69" s="22" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="M69" s="19" t="s">
         <v>20</v>
       </c>
       <c r="N69" s="23" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="O69" s="23"/>
       <c r="P69" s="28"/>
     </row>
     <row r="70" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C70" s="241"/>
+      <c r="C70" s="247"/>
     </row>
     <row r="71" spans="3:16" ht="24" x14ac:dyDescent="0.25">
-      <c r="C71" s="241"/>
+      <c r="C71" s="247"/>
       <c r="D71" s="108" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E71" s="66" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F71" s="25" t="s">
         <v>26</v>
       </c>
       <c r="G71" s="18"/>
       <c r="H71" s="19" t="s">
+        <v>751</v>
+      </c>
+      <c r="I71" s="19" t="s">
         <v>752</v>
-      </c>
-      <c r="I71" s="19" t="s">
-        <v>753</v>
       </c>
       <c r="J71" s="21">
         <v>6</v>
       </c>
       <c r="K71" s="22" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="L71" s="22" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="M71" s="19" t="s">
         <v>20</v>
       </c>
       <c r="N71" s="23" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="O71" s="23"/>
       <c r="P71" s="28"/>
     </row>
     <row r="72" spans="3:16" ht="24" x14ac:dyDescent="0.25">
-      <c r="C72" s="241"/>
+      <c r="C72" s="247"/>
       <c r="D72" s="108" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E72" s="66" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F72" s="25" t="s">
         <v>26</v>
       </c>
       <c r="G72" s="18"/>
       <c r="H72" s="19" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I72" s="110" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="J72" s="118">
         <v>5</v>
       </c>
       <c r="K72" s="22" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="L72" s="22" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="M72" s="19" t="s">
         <v>20</v>
       </c>
       <c r="N72" s="23" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="O72" s="23"/>
       <c r="P72" s="28"/>
     </row>
     <row r="73" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C73" s="241"/>
+      <c r="C73" s="247"/>
       <c r="D73" s="103"/>
       <c r="E73" s="123"/>
       <c r="F73" s="82"/>
@@ -8699,31 +8741,31 @@
       <c r="P73" s="107"/>
     </row>
     <row r="74" spans="3:16" ht="24" x14ac:dyDescent="0.25">
-      <c r="C74" s="241"/>
+      <c r="C74" s="247"/>
       <c r="D74" s="108" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E74" s="17" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F74" s="25" t="s">
         <v>33</v>
       </c>
       <c r="G74" s="18"/>
       <c r="H74" s="19" t="s">
+        <v>758</v>
+      </c>
+      <c r="I74" s="19" t="s">
         <v>759</v>
-      </c>
-      <c r="I74" s="19" t="s">
-        <v>760</v>
       </c>
       <c r="J74" s="21">
         <v>6</v>
       </c>
       <c r="K74" s="22" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="L74" s="22" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="M74" s="19" t="s">
         <v>20</v>
@@ -8735,31 +8777,31 @@
       <c r="P74" s="28"/>
     </row>
     <row r="75" spans="3:16" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="C75" s="241"/>
+      <c r="C75" s="247"/>
       <c r="D75" s="108" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E75" s="66" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F75" s="25" t="s">
         <v>33</v>
       </c>
       <c r="G75" s="18"/>
       <c r="H75" s="19" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I75" s="124" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="J75" s="118">
         <v>12</v>
       </c>
       <c r="K75" s="22" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="L75" s="22" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="M75" s="19" t="s">
         <v>20</v>
@@ -8771,243 +8813,243 @@
       <c r="P75" s="28"/>
     </row>
     <row r="76" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C76" s="241"/>
+      <c r="C76" s="247"/>
     </row>
     <row r="77" spans="3:16" ht="24" x14ac:dyDescent="0.25">
-      <c r="C77" s="241"/>
+      <c r="C77" s="247"/>
       <c r="D77" s="108" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E77" s="66" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F77" s="25" t="s">
         <v>36</v>
       </c>
       <c r="G77" s="18"/>
       <c r="H77" s="19" t="s">
+        <v>761</v>
+      </c>
+      <c r="I77" s="19" t="s">
         <v>762</v>
-      </c>
-      <c r="I77" s="19" t="s">
-        <v>763</v>
       </c>
       <c r="J77" s="21">
         <v>4</v>
       </c>
       <c r="K77" s="22" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="L77" s="22" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="M77" s="19" t="s">
         <v>20</v>
       </c>
       <c r="N77" s="23" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="O77" s="23"/>
       <c r="P77" s="28"/>
     </row>
     <row r="78" spans="3:16" ht="24" x14ac:dyDescent="0.25">
-      <c r="C78" s="241"/>
+      <c r="C78" s="247"/>
       <c r="D78" s="108" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E78" s="66" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F78" s="25" t="s">
         <v>36</v>
       </c>
       <c r="G78" s="18"/>
       <c r="H78" s="19" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I78" s="110" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="J78" s="118">
         <v>2</v>
       </c>
       <c r="K78" s="22" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="L78" s="22" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="M78" s="19" t="s">
         <v>20</v>
       </c>
       <c r="N78" s="23" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="O78" s="23"/>
       <c r="P78" s="28"/>
     </row>
     <row r="79" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C79" s="241"/>
+      <c r="C79" s="247"/>
     </row>
     <row r="80" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C80" s="241"/>
+      <c r="C80" s="247"/>
     </row>
     <row r="81" spans="3:16" ht="36" x14ac:dyDescent="0.25">
-      <c r="C81" s="241"/>
+      <c r="C81" s="247"/>
       <c r="D81" s="108" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E81" s="66" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="F81" s="18" t="s">
         <v>197</v>
       </c>
       <c r="G81" s="18"/>
       <c r="H81" s="19" t="s">
+        <v>767</v>
+      </c>
+      <c r="I81" s="19" t="s">
         <v>768</v>
-      </c>
-      <c r="I81" s="19" t="s">
-        <v>769</v>
       </c>
       <c r="J81" s="21">
         <v>4</v>
       </c>
       <c r="K81" s="18" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="L81" s="22" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="M81" s="19" t="s">
         <v>109</v>
       </c>
       <c r="N81" s="23" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="O81" s="23"/>
       <c r="P81" s="28"/>
     </row>
     <row r="82" spans="3:16" ht="36" x14ac:dyDescent="0.25">
-      <c r="C82" s="241"/>
+      <c r="C82" s="247"/>
       <c r="D82" s="108" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E82" s="66" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="F82" s="18" t="s">
         <v>197</v>
       </c>
       <c r="G82" s="18"/>
       <c r="H82" s="19" t="s">
+        <v>770</v>
+      </c>
+      <c r="I82" s="110" t="s">
         <v>771</v>
-      </c>
-      <c r="I82" s="110" t="s">
-        <v>772</v>
       </c>
       <c r="J82" s="118">
         <v>1</v>
       </c>
       <c r="K82" s="22" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="L82" s="22" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="M82" s="19" t="s">
         <v>109</v>
       </c>
       <c r="N82" s="23" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="O82" s="23"/>
       <c r="P82" s="28"/>
     </row>
     <row r="83" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C83" s="241"/>
+      <c r="C83" s="247"/>
     </row>
     <row r="84" spans="3:16" ht="24" x14ac:dyDescent="0.25">
-      <c r="C84" s="241"/>
+      <c r="C84" s="247"/>
       <c r="D84" s="108" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E84" s="66" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="F84" s="18" t="s">
         <v>207</v>
       </c>
       <c r="G84" s="18"/>
       <c r="H84" s="19" t="s">
+        <v>774</v>
+      </c>
+      <c r="I84" s="19" t="s">
         <v>775</v>
-      </c>
-      <c r="I84" s="19" t="s">
-        <v>776</v>
       </c>
       <c r="J84" s="21">
         <v>3</v>
       </c>
       <c r="K84" s="22" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="L84" s="22" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="M84" s="19" t="s">
         <v>208</v>
       </c>
       <c r="N84" s="23" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="O84" s="23"/>
       <c r="P84" s="29"/>
     </row>
     <row r="85" spans="3:16" ht="24" x14ac:dyDescent="0.25">
-      <c r="C85" s="241"/>
+      <c r="C85" s="247"/>
       <c r="D85" s="108" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E85" s="66" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="F85" s="18" t="s">
         <v>207</v>
       </c>
       <c r="G85" s="18"/>
       <c r="H85" s="19" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="I85" s="19" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="J85" s="118">
         <v>4</v>
       </c>
       <c r="K85" s="22" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="L85" s="22" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="M85" s="19" t="s">
         <v>208</v>
       </c>
       <c r="N85" s="23" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="O85" s="23"/>
       <c r="P85" s="29"/>
     </row>
     <row r="86" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C86" s="241"/>
+      <c r="C86" s="247"/>
     </row>
     <row r="87" spans="3:16" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="C87" s="241"/>
+      <c r="C87" s="247"/>
       <c r="D87" s="108" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E87" s="66" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F87" s="18" t="s">
         <v>120</v>
@@ -9017,16 +9059,16 @@
         <v>121</v>
       </c>
       <c r="I87" s="19" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="J87" s="21">
         <v>2</v>
       </c>
       <c r="K87" s="22" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="L87" s="22" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="M87" s="19" t="s">
         <v>119</v>
@@ -9038,12 +9080,12 @@
       <c r="P87" s="28"/>
     </row>
     <row r="88" spans="3:16" ht="24" x14ac:dyDescent="0.25">
-      <c r="C88" s="241"/>
+      <c r="C88" s="247"/>
       <c r="D88" s="108" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E88" s="66" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F88" s="18" t="s">
         <v>120</v>
@@ -9053,16 +9095,16 @@
         <v>121</v>
       </c>
       <c r="I88" s="19" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="J88" s="118">
         <v>6</v>
       </c>
       <c r="K88" s="22" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="L88" s="22" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="M88" s="19" t="s">
         <v>119</v>
@@ -9074,15 +9116,15 @@
       <c r="P88" s="28"/>
     </row>
     <row r="89" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C89" s="241"/>
+      <c r="C89" s="247"/>
     </row>
     <row r="90" spans="3:16" ht="24" x14ac:dyDescent="0.25">
-      <c r="C90" s="241"/>
+      <c r="C90" s="247"/>
       <c r="D90" s="108" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E90" s="66" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F90" s="18" t="s">
         <v>117</v>
@@ -9092,16 +9134,16 @@
         <v>118</v>
       </c>
       <c r="I90" s="19" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="J90" s="21">
         <v>2</v>
       </c>
       <c r="K90" s="22" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="L90" s="22" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="M90" s="19" t="s">
         <v>119</v>
@@ -9113,12 +9155,12 @@
       <c r="P90" s="28"/>
     </row>
     <row r="91" spans="3:16" ht="24" x14ac:dyDescent="0.25">
-      <c r="C91" s="241"/>
+      <c r="C91" s="247"/>
       <c r="D91" s="108" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E91" s="66" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F91" s="18" t="s">
         <v>117</v>
@@ -9128,16 +9170,16 @@
         <v>118</v>
       </c>
       <c r="I91" s="19" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="J91" s="118">
         <v>3</v>
       </c>
       <c r="K91" s="22" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="L91" s="22" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="M91" s="19" t="s">
         <v>119</v>
@@ -9149,15 +9191,15 @@
       <c r="P91" s="28"/>
     </row>
     <row r="92" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C92" s="241"/>
+      <c r="C92" s="247"/>
     </row>
     <row r="93" spans="3:16" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="C93" s="241"/>
+      <c r="C93" s="247"/>
       <c r="D93" s="108" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E93" s="66" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F93" s="18" t="s">
         <v>122</v>
@@ -9167,16 +9209,16 @@
         <v>123</v>
       </c>
       <c r="I93" s="19" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="J93" s="21">
         <v>1</v>
       </c>
       <c r="K93" s="22" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="L93" s="22" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="M93" s="19" t="s">
         <v>119</v>
@@ -9188,12 +9230,12 @@
       <c r="P93" s="28"/>
     </row>
     <row r="94" spans="3:16" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="C94" s="241"/>
+      <c r="C94" s="247"/>
       <c r="D94" s="108" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E94" s="66" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F94" s="18" t="s">
         <v>122</v>
@@ -9203,16 +9245,16 @@
         <v>123</v>
       </c>
       <c r="I94" s="19" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="J94" s="118">
         <v>2</v>
       </c>
       <c r="K94" s="22" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="L94" s="22" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="M94" s="19" t="s">
         <v>119</v>
@@ -9224,83 +9266,83 @@
       <c r="P94" s="28"/>
     </row>
     <row r="95" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C95" s="241"/>
+      <c r="C95" s="247"/>
     </row>
     <row r="96" spans="3:16" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="C96" s="241"/>
+      <c r="C96" s="247"/>
       <c r="D96" s="108" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E96" s="66" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="F96" s="18" t="s">
         <v>111</v>
       </c>
       <c r="G96" s="18"/>
       <c r="H96" s="19" t="s">
+        <v>786</v>
+      </c>
+      <c r="I96" s="19" t="s">
         <v>787</v>
-      </c>
-      <c r="I96" s="19" t="s">
-        <v>788</v>
       </c>
       <c r="J96" s="21">
         <v>4</v>
       </c>
       <c r="K96" s="22" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="L96" s="22" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="M96" s="19" t="s">
         <v>109</v>
       </c>
       <c r="N96" s="23" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="O96" s="23"/>
       <c r="P96" s="28"/>
     </row>
     <row r="97" spans="3:16" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="C97" s="241"/>
+      <c r="C97" s="247"/>
       <c r="D97" s="108" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E97" s="66" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="F97" s="18" t="s">
         <v>111</v>
       </c>
       <c r="G97" s="18"/>
       <c r="H97" s="19" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="I97" s="110" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="J97" s="118">
         <v>1</v>
       </c>
       <c r="K97" s="22" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="L97" s="22" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="M97" s="19" t="s">
         <v>109</v>
       </c>
       <c r="N97" s="23" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="O97" s="23"/>
       <c r="P97" s="28"/>
     </row>
     <row r="98" spans="3:16" s="43" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C98" s="49" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D98" s="58"/>
       <c r="E98" s="59" t="s">
@@ -9341,14 +9383,14 @@
       </c>
     </row>
     <row r="99" spans="3:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C99" s="237">
+      <c r="C99" s="238">
         <v>43589</v>
       </c>
       <c r="D99" s="108" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E99" s="66" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F99" s="18"/>
       <c r="G99" s="18"/>
@@ -9363,18 +9405,18 @@
       <c r="P99" s="28"/>
     </row>
     <row r="100" spans="3:16" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C100" s="238"/>
-      <c r="D100" s="235" t="s">
-        <v>798</v>
+      <c r="C100" s="239"/>
+      <c r="D100" s="244" t="s">
+        <v>797</v>
       </c>
       <c r="E100" s="66"/>
       <c r="F100" s="18"/>
       <c r="G100" s="18"/>
       <c r="H100" s="110" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="I100" s="125" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="J100" s="118">
         <v>3</v>
@@ -9389,16 +9431,16 @@
       <c r="P100" s="28"/>
     </row>
     <row r="101" spans="3:16" ht="24" x14ac:dyDescent="0.25">
-      <c r="C101" s="238"/>
-      <c r="D101" s="236"/>
+      <c r="C101" s="239"/>
+      <c r="D101" s="245"/>
       <c r="E101" s="66"/>
       <c r="F101" s="18"/>
       <c r="G101" s="18"/>
       <c r="H101" s="118" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="I101" s="118" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="J101" s="118">
         <v>1</v>
@@ -9409,117 +9451,117 @@
       <c r="L101" s="118"/>
       <c r="M101" s="118"/>
       <c r="N101" s="118" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="O101" s="23"/>
       <c r="P101" s="28"/>
     </row>
     <row r="102" spans="3:16" ht="24" x14ac:dyDescent="0.25">
-      <c r="C102" s="238"/>
-      <c r="D102" s="236"/>
+      <c r="C102" s="239"/>
+      <c r="D102" s="245"/>
       <c r="E102" s="66"/>
       <c r="F102" s="18"/>
       <c r="G102" s="18"/>
       <c r="H102" s="118" t="s">
+        <v>814</v>
+      </c>
+      <c r="I102" s="118" t="s">
         <v>815</v>
-      </c>
-      <c r="I102" s="118" t="s">
-        <v>816</v>
       </c>
       <c r="J102" s="118">
         <v>1</v>
       </c>
       <c r="K102" s="118" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="L102" s="118"/>
       <c r="M102" s="118"/>
       <c r="N102" s="118" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="O102" s="23"/>
       <c r="P102" s="28"/>
     </row>
     <row r="103" spans="3:16" ht="24" x14ac:dyDescent="0.25">
-      <c r="C103" s="238"/>
-      <c r="D103" s="236"/>
+      <c r="C103" s="239"/>
+      <c r="D103" s="245"/>
       <c r="E103" s="66"/>
       <c r="F103" s="18"/>
       <c r="G103" s="18"/>
       <c r="H103" s="118" t="s">
+        <v>818</v>
+      </c>
+      <c r="I103" s="118" t="s">
         <v>819</v>
-      </c>
-      <c r="I103" s="118" t="s">
-        <v>820</v>
       </c>
       <c r="J103" s="118">
         <v>1</v>
       </c>
       <c r="K103" s="118" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="L103" s="118"/>
       <c r="M103" s="118"/>
       <c r="N103" s="118" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="O103" s="23"/>
       <c r="P103" s="28"/>
     </row>
     <row r="104" spans="3:16" ht="24" x14ac:dyDescent="0.25">
-      <c r="C104" s="238"/>
-      <c r="D104" s="236"/>
+      <c r="C104" s="239"/>
+      <c r="D104" s="245"/>
       <c r="E104" s="66"/>
       <c r="F104" s="18"/>
       <c r="G104" s="18"/>
       <c r="H104" s="118" t="s">
+        <v>823</v>
+      </c>
+      <c r="I104" s="118" t="s">
         <v>824</v>
-      </c>
-      <c r="I104" s="118" t="s">
-        <v>825</v>
       </c>
       <c r="J104" s="118">
         <v>1</v>
       </c>
       <c r="K104" s="118" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="L104" s="118"/>
       <c r="M104" s="118"/>
       <c r="N104" s="118" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="O104" s="23"/>
       <c r="P104" s="28"/>
     </row>
     <row r="105" spans="3:16" ht="36" x14ac:dyDescent="0.25">
-      <c r="C105" s="238"/>
-      <c r="D105" s="236"/>
+      <c r="C105" s="239"/>
+      <c r="D105" s="245"/>
       <c r="E105" s="126"/>
       <c r="F105" s="34"/>
       <c r="G105" s="34"/>
       <c r="H105" s="127" t="s">
+        <v>833</v>
+      </c>
+      <c r="I105" s="127" t="s">
         <v>834</v>
-      </c>
-      <c r="I105" s="127" t="s">
-        <v>835</v>
       </c>
       <c r="J105" s="127">
         <v>1</v>
       </c>
       <c r="K105" s="127" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="L105" s="127"/>
       <c r="M105" s="127"/>
       <c r="N105" s="127" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="O105" s="127"/>
       <c r="P105" s="127"/>
     </row>
     <row r="106" spans="3:16" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="C106" s="238"/>
+      <c r="C106" s="239"/>
       <c r="D106" s="137"/>
       <c r="E106" s="138"/>
       <c r="F106" s="139"/>
@@ -9535,9 +9577,9 @@
       <c r="P106" s="141"/>
     </row>
     <row r="107" spans="3:16" ht="24" x14ac:dyDescent="0.25">
-      <c r="C107" s="238"/>
+      <c r="C107" s="239"/>
       <c r="D107" s="128" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E107" s="129" t="s">
         <v>509</v>
@@ -9550,7 +9592,7 @@
         <v>510</v>
       </c>
       <c r="I107" s="131" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="J107" s="132">
         <v>1</v>
@@ -9560,18 +9602,18 @@
       </c>
       <c r="L107" s="133"/>
       <c r="M107" s="131" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="N107" s="134" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="O107" s="135"/>
       <c r="P107" s="136"/>
     </row>
     <row r="108" spans="3:16" ht="36" x14ac:dyDescent="0.25">
-      <c r="C108" s="238"/>
+      <c r="C108" s="239"/>
       <c r="D108" s="142" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E108" s="33" t="s">
         <v>509</v>
@@ -9584,7 +9626,7 @@
         <v>510</v>
       </c>
       <c r="I108" s="144" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="J108" s="145">
         <v>1</v>
@@ -9594,16 +9636,16 @@
       </c>
       <c r="L108" s="146"/>
       <c r="M108" s="144" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="N108" s="147" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="O108" s="56"/>
       <c r="P108" s="148"/>
     </row>
     <row r="109" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C109" s="238"/>
+      <c r="C109" s="239"/>
       <c r="D109" s="153"/>
       <c r="E109" s="154"/>
       <c r="F109" s="155"/>
@@ -9619,9 +9661,9 @@
       <c r="P109" s="161"/>
     </row>
     <row r="110" spans="3:16" ht="36" x14ac:dyDescent="0.25">
-      <c r="C110" s="238"/>
+      <c r="C110" s="239"/>
       <c r="D110" s="128" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E110" s="129" t="s">
         <v>203</v>
@@ -9647,15 +9689,15 @@
         <v>193</v>
       </c>
       <c r="N110" s="135" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="O110" s="135"/>
       <c r="P110" s="136"/>
     </row>
     <row r="111" spans="3:16" ht="36" x14ac:dyDescent="0.25">
-      <c r="C111" s="238"/>
+      <c r="C111" s="239"/>
       <c r="D111" s="142" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E111" s="33" t="s">
         <v>203</v>
@@ -9678,16 +9720,16 @@
       </c>
       <c r="L111" s="35"/>
       <c r="M111" s="54" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="N111" s="56" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="O111" s="56"/>
       <c r="P111" s="148"/>
     </row>
     <row r="112" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C112" s="238"/>
+      <c r="C112" s="239"/>
       <c r="D112" s="153"/>
       <c r="E112" s="154"/>
       <c r="F112" s="139"/>
@@ -9703,9 +9745,9 @@
       <c r="P112" s="161"/>
     </row>
     <row r="113" spans="3:16" ht="36" x14ac:dyDescent="0.25">
-      <c r="C113" s="238"/>
+      <c r="C113" s="239"/>
       <c r="D113" s="128" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E113" s="129" t="s">
         <v>486</v>
@@ -9718,7 +9760,7 @@
         <v>168</v>
       </c>
       <c r="I113" s="131" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="J113" s="132">
         <v>5</v>
@@ -9737,9 +9779,9 @@
       <c r="P113" s="136"/>
     </row>
     <row r="114" spans="3:16" ht="36" x14ac:dyDescent="0.25">
-      <c r="C114" s="238"/>
+      <c r="C114" s="239"/>
       <c r="D114" s="142" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E114" s="33" t="s">
         <v>486</v>
@@ -9752,7 +9794,7 @@
         <v>168</v>
       </c>
       <c r="I114" s="144" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="J114" s="145">
         <v>7</v>
@@ -9771,7 +9813,7 @@
       <c r="P114" s="148"/>
     </row>
     <row r="115" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C115" s="238"/>
+      <c r="C115" s="239"/>
       <c r="D115" s="153"/>
       <c r="E115" s="154"/>
       <c r="F115" s="169"/>
@@ -9787,9 +9829,9 @@
       <c r="P115" s="161"/>
     </row>
     <row r="116" spans="3:16" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C116" s="238"/>
+      <c r="C116" s="239"/>
       <c r="D116" s="128" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E116" s="129" t="s">
         <v>396</v>
@@ -9821,9 +9863,9 @@
       <c r="P116" s="136"/>
     </row>
     <row r="117" spans="3:16" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C117" s="238"/>
+      <c r="C117" s="239"/>
       <c r="D117" s="142" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E117" s="33" t="s">
         <v>396</v>
@@ -9836,7 +9878,7 @@
         <v>398</v>
       </c>
       <c r="I117" s="144" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="J117" s="145">
         <v>1</v>
@@ -9849,13 +9891,13 @@
         <v>88</v>
       </c>
       <c r="N117" s="147" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="O117" s="56"/>
       <c r="P117" s="148"/>
     </row>
     <row r="118" spans="3:16" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C118" s="238"/>
+      <c r="C118" s="239"/>
       <c r="D118" s="153"/>
       <c r="E118" s="154"/>
       <c r="F118" s="155"/>
@@ -9871,9 +9913,9 @@
       <c r="P118" s="161"/>
     </row>
     <row r="119" spans="3:16" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C119" s="238"/>
+      <c r="C119" s="239"/>
       <c r="D119" s="128" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E119" s="129" t="s">
         <v>286</v>
@@ -9905,9 +9947,9 @@
       <c r="P119" s="136"/>
     </row>
     <row r="120" spans="3:16" ht="42" x14ac:dyDescent="0.25">
-      <c r="C120" s="238"/>
+      <c r="C120" s="239"/>
       <c r="D120" s="142" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E120" s="33" t="s">
         <v>286</v>
@@ -9920,7 +9962,7 @@
         <v>287</v>
       </c>
       <c r="I120" s="173" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="J120" s="174">
         <v>13</v>
@@ -9939,7 +9981,7 @@
       <c r="P120" s="148"/>
     </row>
     <row r="121" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C121" s="238"/>
+      <c r="C121" s="239"/>
       <c r="D121" s="153"/>
       <c r="E121" s="154"/>
       <c r="F121" s="155"/>
@@ -9955,9 +9997,9 @@
       <c r="P121" s="161"/>
     </row>
     <row r="122" spans="3:16" ht="24" x14ac:dyDescent="0.25">
-      <c r="C122" s="238"/>
+      <c r="C122" s="239"/>
       <c r="D122" s="128" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E122" s="129" t="s">
         <v>286</v>
@@ -9989,9 +10031,9 @@
       <c r="P122" s="136"/>
     </row>
     <row r="123" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C123" s="238"/>
+      <c r="C123" s="239"/>
       <c r="D123" s="142" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E123" s="33" t="s">
         <v>286</v>
@@ -10004,7 +10046,7 @@
         <v>292</v>
       </c>
       <c r="I123" s="54" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="J123" s="55">
         <v>4</v>
@@ -10023,7 +10065,7 @@
       <c r="P123" s="148"/>
     </row>
     <row r="124" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C124" s="238"/>
+      <c r="C124" s="239"/>
       <c r="D124" s="153"/>
       <c r="E124" s="154"/>
       <c r="F124" s="155"/>
@@ -10039,9 +10081,9 @@
       <c r="P124" s="161"/>
     </row>
     <row r="125" spans="3:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="C125" s="238"/>
+      <c r="C125" s="239"/>
       <c r="D125" s="128" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E125" s="129" t="s">
         <v>298</v>
@@ -10051,7 +10093,7 @@
       </c>
       <c r="G125" s="149"/>
       <c r="H125" s="150" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I125" s="171" t="s">
         <v>593</v>
@@ -10067,15 +10109,15 @@
         <v>20</v>
       </c>
       <c r="N125" s="135" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O125" s="135"/>
       <c r="P125" s="136"/>
     </row>
     <row r="126" spans="3:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="C126" s="238"/>
+      <c r="C126" s="239"/>
       <c r="D126" s="142" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E126" s="33" t="s">
         <v>298</v>
@@ -10085,10 +10127,10 @@
       </c>
       <c r="G126" s="34"/>
       <c r="H126" s="54" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I126" s="177" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="J126" s="55">
         <v>7</v>
@@ -10101,13 +10143,13 @@
         <v>20</v>
       </c>
       <c r="N126" s="56" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O126" s="56"/>
       <c r="P126" s="148"/>
     </row>
     <row r="127" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C127" s="238"/>
+      <c r="C127" s="239"/>
       <c r="D127" s="153"/>
       <c r="E127" s="154"/>
       <c r="F127" s="155"/>
@@ -10123,9 +10165,9 @@
       <c r="P127" s="161"/>
     </row>
     <row r="128" spans="3:16" ht="24" x14ac:dyDescent="0.25">
-      <c r="C128" s="238"/>
+      <c r="C128" s="239"/>
       <c r="D128" s="128" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E128" s="129" t="s">
         <v>285</v>
@@ -10138,7 +10180,7 @@
         <v>331</v>
       </c>
       <c r="I128" s="131" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="J128" s="132">
         <v>3</v>
@@ -10157,9 +10199,9 @@
       <c r="P128" s="136"/>
     </row>
     <row r="129" spans="3:16" ht="24" x14ac:dyDescent="0.25">
-      <c r="C129" s="238"/>
+      <c r="C129" s="239"/>
       <c r="D129" s="142" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E129" s="33" t="s">
         <v>285</v>
@@ -10172,7 +10214,7 @@
         <v>331</v>
       </c>
       <c r="I129" s="144" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="J129" s="145">
         <v>4</v>
@@ -10191,7 +10233,7 @@
       <c r="P129" s="148"/>
     </row>
     <row r="130" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C130" s="238"/>
+      <c r="C130" s="239"/>
       <c r="D130" s="153"/>
       <c r="E130" s="154"/>
       <c r="F130" s="155"/>
@@ -10207,9 +10249,9 @@
       <c r="P130" s="161"/>
     </row>
     <row r="131" spans="3:16" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="C131" s="238"/>
+      <c r="C131" s="239"/>
       <c r="D131" s="128" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E131" s="129" t="s">
         <v>362</v>
@@ -10222,7 +10264,7 @@
         <v>368</v>
       </c>
       <c r="I131" s="130" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="J131" s="179">
         <v>4</v>
@@ -10243,9 +10285,9 @@
       <c r="P131" s="136"/>
     </row>
     <row r="132" spans="3:16" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="C132" s="238"/>
+      <c r="C132" s="239"/>
       <c r="D132" s="142" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E132" s="33" t="s">
         <v>362</v>
@@ -10258,7 +10300,7 @@
         <v>368</v>
       </c>
       <c r="I132" s="143" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="J132" s="181">
         <v>9</v>
@@ -10279,7 +10321,7 @@
       <c r="P132" s="148"/>
     </row>
     <row r="133" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C133" s="238"/>
+      <c r="C133" s="239"/>
       <c r="D133" s="153"/>
       <c r="E133" s="154"/>
       <c r="F133" s="155"/>
@@ -10295,9 +10337,9 @@
       <c r="P133" s="161"/>
     </row>
     <row r="134" spans="3:16" ht="24" x14ac:dyDescent="0.25">
-      <c r="C134" s="238"/>
+      <c r="C134" s="239"/>
       <c r="D134" s="128" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E134" s="129" t="s">
         <v>352</v>
@@ -10329,9 +10371,9 @@
       <c r="P134" s="136"/>
     </row>
     <row r="135" spans="3:16" ht="24" x14ac:dyDescent="0.25">
-      <c r="C135" s="238"/>
+      <c r="C135" s="239"/>
       <c r="D135" s="142" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E135" s="33" t="s">
         <v>352</v>
@@ -10344,7 +10386,7 @@
         <v>379</v>
       </c>
       <c r="I135" s="54" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J135" s="127">
         <v>6</v>
@@ -10363,7 +10405,7 @@
       <c r="P135" s="148"/>
     </row>
     <row r="136" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C136" s="238"/>
+      <c r="C136" s="239"/>
       <c r="D136" s="153"/>
       <c r="E136" s="154"/>
       <c r="F136" s="139"/>
@@ -10379,9 +10421,9 @@
       <c r="P136" s="161"/>
     </row>
     <row r="137" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C137" s="238"/>
+      <c r="C137" s="239"/>
       <c r="D137" s="128" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E137" s="129" t="s">
         <v>440</v>
@@ -10394,7 +10436,7 @@
         <v>452</v>
       </c>
       <c r="I137" s="150" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="J137" s="151">
         <v>2</v>
@@ -10413,9 +10455,9 @@
       <c r="P137" s="136"/>
     </row>
     <row r="138" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C138" s="238"/>
+      <c r="C138" s="239"/>
       <c r="D138" s="142" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E138" s="33" t="s">
         <v>440</v>
@@ -10425,10 +10467,10 @@
       </c>
       <c r="G138" s="34"/>
       <c r="H138" s="54" t="s">
+        <v>831</v>
+      </c>
+      <c r="I138" s="54" t="s">
         <v>832</v>
-      </c>
-      <c r="I138" s="54" t="s">
-        <v>833</v>
       </c>
       <c r="J138" s="127">
         <v>3</v>
@@ -10441,13 +10483,13 @@
         <v>93</v>
       </c>
       <c r="N138" s="185" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="O138" s="56"/>
       <c r="P138" s="148"/>
     </row>
     <row r="139" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C139" s="238"/>
+      <c r="C139" s="239"/>
       <c r="D139" s="153"/>
       <c r="E139" s="154"/>
       <c r="F139" s="139"/>
@@ -10463,9 +10505,9 @@
       <c r="P139" s="161"/>
     </row>
     <row r="140" spans="3:16" ht="24" x14ac:dyDescent="0.25">
-      <c r="C140" s="238"/>
+      <c r="C140" s="239"/>
       <c r="D140" s="189" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E140" s="129" t="s">
         <v>477</v>
@@ -10478,7 +10520,7 @@
         <v>481</v>
       </c>
       <c r="I140" s="171" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="J140" s="151">
         <v>1</v>
@@ -10497,9 +10539,9 @@
       <c r="P140" s="136"/>
     </row>
     <row r="141" spans="3:16" ht="24" x14ac:dyDescent="0.25">
-      <c r="C141" s="239"/>
+      <c r="C141" s="240"/>
       <c r="D141" s="189" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E141" s="33" t="s">
         <v>477</v>
@@ -10512,7 +10554,7 @@
         <v>481</v>
       </c>
       <c r="I141" s="177" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="J141" s="55">
         <v>3</v>
@@ -10531,7 +10573,7 @@
       <c r="P141" s="148"/>
     </row>
     <row r="142" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C142" s="237">
+      <c r="C142" s="238">
         <v>43592</v>
       </c>
       <c r="D142" s="153"/>
@@ -10549,9 +10591,9 @@
       <c r="P142" s="161"/>
     </row>
     <row r="143" spans="3:16" ht="24" x14ac:dyDescent="0.25">
-      <c r="C143" s="238"/>
+      <c r="C143" s="239"/>
       <c r="D143" s="189" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E143" s="17" t="s">
         <v>352</v>
@@ -10564,7 +10606,7 @@
         <v>73</v>
       </c>
       <c r="I143" s="19" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="J143" s="191">
         <v>4</v>
@@ -10585,9 +10627,9 @@
       <c r="P143" s="28"/>
     </row>
     <row r="144" spans="3:16" ht="24" x14ac:dyDescent="0.25">
-      <c r="C144" s="238"/>
+      <c r="C144" s="239"/>
       <c r="D144" s="189" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E144" s="17" t="s">
         <v>352</v>
@@ -10600,7 +10642,7 @@
         <v>73</v>
       </c>
       <c r="I144" s="19" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="J144" s="118">
         <v>5</v>
@@ -10621,7 +10663,7 @@
       <c r="P144" s="28"/>
     </row>
     <row r="145" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C145" s="238"/>
+      <c r="C145" s="239"/>
       <c r="D145" s="153"/>
       <c r="E145" s="156"/>
       <c r="F145" s="157"/>
@@ -10637,9 +10679,9 @@
       <c r="P145" s="161"/>
     </row>
     <row r="146" spans="3:16" ht="24" x14ac:dyDescent="0.25">
-      <c r="C146" s="238"/>
+      <c r="C146" s="239"/>
       <c r="D146" s="189" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E146" s="17" t="s">
         <v>486</v>
@@ -10652,7 +10694,7 @@
         <v>487</v>
       </c>
       <c r="I146" s="190" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="J146" s="191">
         <v>3</v>
@@ -10671,9 +10713,9 @@
       <c r="P146" s="28"/>
     </row>
     <row r="147" spans="3:16" ht="24" x14ac:dyDescent="0.25">
-      <c r="C147" s="238"/>
+      <c r="C147" s="239"/>
       <c r="D147" s="189" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E147" s="17" t="s">
         <v>486</v>
@@ -10686,7 +10728,7 @@
         <v>487</v>
       </c>
       <c r="I147" s="110" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="J147" s="118">
         <v>6</v>
@@ -10705,7 +10747,7 @@
       <c r="P147" s="28"/>
     </row>
     <row r="148" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C148" s="239"/>
+      <c r="C148" s="240"/>
       <c r="D148" s="153"/>
       <c r="E148" s="156"/>
       <c r="F148" s="157"/>
@@ -10721,7 +10763,7 @@
       <c r="P148" s="161"/>
     </row>
     <row r="149" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C149" s="237">
+      <c r="C149" s="238">
         <v>43595</v>
       </c>
       <c r="D149" s="192"/>
@@ -10739,9 +10781,9 @@
       <c r="P149" s="195"/>
     </row>
     <row r="150" spans="3:16" ht="24" x14ac:dyDescent="0.25">
-      <c r="C150" s="238"/>
+      <c r="C150" s="239"/>
       <c r="D150" s="189" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E150" s="17" t="s">
         <v>509</v>
@@ -10749,23 +10791,23 @@
       <c r="F150" s="18"/>
       <c r="G150" s="18"/>
       <c r="H150" s="19" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="I150" s="190" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="J150" s="191">
         <v>1</v>
       </c>
       <c r="K150" s="18" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="L150" s="22"/>
       <c r="M150" s="19" t="s">
         <v>580</v>
       </c>
       <c r="N150" s="23" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="O150" s="23"/>
       <c r="P150" s="28" t="s">
@@ -10773,12 +10815,12 @@
       </c>
     </row>
     <row r="151" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C151" s="238"/>
+      <c r="C151" s="239"/>
       <c r="D151" s="189" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E151" s="17" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F151" s="18"/>
       <c r="G151" s="18"/>
@@ -10793,22 +10835,22 @@
       <c r="P151" s="28"/>
     </row>
     <row r="152" spans="3:16" ht="24" x14ac:dyDescent="0.25">
-      <c r="C152" s="238"/>
+      <c r="C152" s="239"/>
       <c r="D152" s="189" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E152" s="17" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="F152" s="18" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G152" s="18"/>
       <c r="H152" s="19" t="s">
+        <v>881</v>
+      </c>
+      <c r="I152" s="190" t="s">
         <v>882</v>
-      </c>
-      <c r="I152" s="190" t="s">
-        <v>883</v>
       </c>
       <c r="J152" s="191">
         <v>5</v>
@@ -10818,42 +10860,42 @@
       </c>
       <c r="L152" s="22"/>
       <c r="M152" s="19" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="N152" s="23" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="O152" s="23"/>
       <c r="P152" s="28"/>
     </row>
     <row r="153" spans="3:16" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="C153" s="239"/>
+      <c r="C153" s="240"/>
       <c r="D153" s="189" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="E153" s="17" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="F153" s="17"/>
       <c r="G153" s="17"/>
       <c r="H153" s="17" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="I153" s="17" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="J153" s="17">
         <v>5</v>
       </c>
       <c r="K153" s="17" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="L153" s="17"/>
       <c r="M153" s="17" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="N153" s="196" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="O153" s="17"/>
       <c r="P153" s="17" t="s">
@@ -10861,7 +10903,7 @@
       </c>
     </row>
     <row r="154" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C154" s="237">
+      <c r="C154" s="238">
         <v>43599</v>
       </c>
       <c r="D154" s="192"/>
@@ -10879,22 +10921,22 @@
       <c r="P154" s="195"/>
     </row>
     <row r="155" spans="3:16" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="C155" s="238"/>
+      <c r="C155" s="239"/>
       <c r="D155" s="189" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E155" s="219" t="s">
         <v>509</v>
       </c>
       <c r="F155" s="25" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="G155" s="25"/>
       <c r="H155" s="220" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="I155" s="220" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="J155" s="221">
         <v>1</v>
@@ -10904,33 +10946,33 @@
       </c>
       <c r="L155" s="26"/>
       <c r="M155" s="220" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="N155" s="225" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="O155" s="222"/>
       <c r="P155" s="197" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="156" spans="3:16" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="C156" s="239"/>
+      <c r="C156" s="240"/>
       <c r="D156" s="189" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E156" s="219" t="s">
         <v>509</v>
       </c>
       <c r="F156" s="25" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="G156" s="25"/>
       <c r="H156" s="220" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="I156" s="220" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="J156" s="221">
         <v>1</v>
@@ -10940,18 +10982,18 @@
       </c>
       <c r="L156" s="26"/>
       <c r="M156" s="220" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="N156" s="225" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="O156" s="222"/>
       <c r="P156" s="197" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="157" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C157" s="237">
+      <c r="C157" s="238">
         <v>43600</v>
       </c>
       <c r="D157" s="192"/>
@@ -10969,22 +11011,22 @@
       <c r="P157" s="195"/>
     </row>
     <row r="158" spans="3:16" ht="24" x14ac:dyDescent="0.25">
-      <c r="C158" s="238"/>
+      <c r="C158" s="239"/>
       <c r="D158" s="189" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E158" s="17" t="s">
         <v>281</v>
       </c>
       <c r="F158" s="25" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="G158" s="25"/>
       <c r="H158" s="211" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="I158" s="211" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="J158" s="199">
         <v>1</v>
@@ -10999,7 +11041,7 @@
         <v>20</v>
       </c>
       <c r="N158" s="211" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="O158" s="212"/>
       <c r="P158" s="210" t="s">
@@ -11007,12 +11049,12 @@
       </c>
     </row>
     <row r="159" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C159" s="238"/>
+      <c r="C159" s="239"/>
       <c r="D159" s="189" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E159" s="196" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="F159" s="25"/>
       <c r="G159" s="25"/>
@@ -11027,22 +11069,22 @@
       <c r="P159" s="197"/>
     </row>
     <row r="160" spans="3:16" ht="24" x14ac:dyDescent="0.25">
-      <c r="C160" s="238"/>
+      <c r="C160" s="239"/>
       <c r="D160" s="189" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E160" s="17" t="s">
         <v>281</v>
       </c>
       <c r="F160" s="215" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="G160" s="214"/>
       <c r="H160" s="211" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="I160" s="211" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="J160" s="199">
         <v>1</v>
@@ -11057,7 +11099,7 @@
         <v>20</v>
       </c>
       <c r="N160" s="211" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="O160" s="212"/>
       <c r="P160" s="210" t="s">
@@ -11065,12 +11107,12 @@
       </c>
     </row>
     <row r="161" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C161" s="238"/>
+      <c r="C161" s="239"/>
       <c r="D161" s="189" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E161" s="196" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="F161" s="25"/>
       <c r="G161" s="25"/>
@@ -11085,22 +11127,22 @@
       <c r="P161" s="197"/>
     </row>
     <row r="162" spans="3:16" ht="24" x14ac:dyDescent="0.3">
-      <c r="C162" s="238"/>
+      <c r="C162" s="239"/>
       <c r="D162" s="189" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E162" s="17" t="s">
         <v>281</v>
       </c>
       <c r="F162" s="213" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="G162" s="214"/>
       <c r="H162" s="211" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="I162" s="211" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="J162" s="199">
         <v>1</v>
@@ -11115,7 +11157,7 @@
         <v>20</v>
       </c>
       <c r="N162" s="211" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="O162" s="212"/>
       <c r="P162" s="210" t="s">
@@ -11123,12 +11165,12 @@
       </c>
     </row>
     <row r="163" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C163" s="238"/>
+      <c r="C163" s="239"/>
       <c r="D163" s="189" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E163" s="196" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="F163" s="25"/>
       <c r="G163" s="25"/>
@@ -11143,22 +11185,22 @@
       <c r="P163" s="197"/>
     </row>
     <row r="164" spans="3:16" ht="24" x14ac:dyDescent="0.25">
-      <c r="C164" s="238"/>
+      <c r="C164" s="239"/>
       <c r="D164" s="189" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E164" s="17" t="s">
         <v>281</v>
       </c>
       <c r="F164" s="215" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="G164" s="216"/>
       <c r="H164" s="211" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="I164" s="211" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="J164" s="199">
         <v>1</v>
@@ -11173,7 +11215,7 @@
         <v>20</v>
       </c>
       <c r="N164" s="211" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="O164" s="212"/>
       <c r="P164" s="210" t="s">
@@ -11181,12 +11223,12 @@
       </c>
     </row>
     <row r="165" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C165" s="238"/>
+      <c r="C165" s="239"/>
       <c r="D165" s="189" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E165" s="196" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="F165" s="25"/>
       <c r="G165" s="25"/>
@@ -11201,22 +11243,22 @@
       <c r="P165" s="197"/>
     </row>
     <row r="166" spans="3:16" ht="42" x14ac:dyDescent="0.25">
-      <c r="C166" s="238"/>
+      <c r="C166" s="239"/>
       <c r="D166" s="189" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E166" s="17" t="s">
         <v>286</v>
       </c>
       <c r="F166" s="25" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="G166" s="25"/>
       <c r="H166" s="198" t="s">
         <v>287</v>
       </c>
       <c r="I166" s="201" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="J166" s="203">
         <v>13</v>
@@ -11237,22 +11279,22 @@
       <c r="P166" s="197"/>
     </row>
     <row r="167" spans="3:16" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C167" s="238"/>
+      <c r="C167" s="239"/>
       <c r="D167" s="189" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E167" s="17" t="s">
         <v>286</v>
       </c>
       <c r="F167" s="25" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="G167" s="25"/>
       <c r="H167" s="198" t="s">
         <v>287</v>
       </c>
       <c r="I167" s="201" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="J167" s="228">
         <v>12</v>
@@ -11273,22 +11315,22 @@
       <c r="P167" s="197"/>
     </row>
     <row r="168" spans="3:16" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="C168" s="238"/>
+      <c r="C168" s="239"/>
       <c r="D168" s="189" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E168" s="17" t="s">
         <v>440</v>
       </c>
       <c r="F168" s="25" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="G168" s="25"/>
       <c r="H168" s="198" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="I168" s="198" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="J168" s="199">
         <v>3</v>
@@ -11303,30 +11345,30 @@
         <v>93</v>
       </c>
       <c r="N168" s="225" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="O168" s="200"/>
       <c r="P168" s="197" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="169" spans="3:16" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="C169" s="238"/>
+      <c r="C169" s="239"/>
       <c r="D169" s="189" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E169" s="17" t="s">
         <v>440</v>
       </c>
       <c r="F169" s="25" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="G169" s="25"/>
       <c r="H169" s="198" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="I169" s="198" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="J169" s="212">
         <v>2</v>
@@ -11341,30 +11383,30 @@
         <v>93</v>
       </c>
       <c r="N169" s="225" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="O169" s="200"/>
       <c r="P169" s="197" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="170" spans="3:16" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="C170" s="238"/>
+      <c r="C170" s="239"/>
       <c r="D170" s="189" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E170" s="196" t="s">
         <v>509</v>
       </c>
       <c r="F170" s="124" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="G170" s="124"/>
       <c r="H170" s="227" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="I170" s="227" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="J170" s="212">
         <v>1</v>
@@ -11374,23 +11416,23 @@
       </c>
       <c r="L170" s="120"/>
       <c r="M170" s="227" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="N170" s="225" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="O170" s="225"/>
       <c r="P170" s="36" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="171" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C171" s="238"/>
+      <c r="C171" s="239"/>
       <c r="D171" s="189" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E171" s="196" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="F171" s="25"/>
       <c r="G171" s="25"/>
@@ -11405,9 +11447,9 @@
       <c r="P171" s="197"/>
     </row>
     <row r="172" spans="3:16" ht="24" x14ac:dyDescent="0.25">
-      <c r="C172" s="238"/>
+      <c r="C172" s="239"/>
       <c r="D172" s="189" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E172" s="17" t="s">
         <v>477</v>
@@ -11420,7 +11462,7 @@
         <v>481</v>
       </c>
       <c r="I172" s="226" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="J172" s="199">
         <v>3</v>
@@ -11439,9 +11481,9 @@
       <c r="P172" s="197"/>
     </row>
     <row r="173" spans="3:16" ht="24" x14ac:dyDescent="0.25">
-      <c r="C173" s="238"/>
+      <c r="C173" s="239"/>
       <c r="D173" s="189" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E173" s="17" t="s">
         <v>477</v>
@@ -11454,7 +11496,7 @@
         <v>481</v>
       </c>
       <c r="I173" s="226" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="J173" s="212">
         <v>1</v>
@@ -11473,22 +11515,22 @@
       <c r="P173" s="197"/>
     </row>
     <row r="174" spans="3:16" ht="36" x14ac:dyDescent="0.25">
-      <c r="C174" s="238"/>
+      <c r="C174" s="239"/>
       <c r="D174" s="189" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E174" s="17" t="s">
         <v>545</v>
       </c>
       <c r="F174" s="25" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="G174" s="214"/>
       <c r="H174" s="211" t="s">
+        <v>833</v>
+      </c>
+      <c r="I174" s="211" t="s">
         <v>834</v>
-      </c>
-      <c r="I174" s="211" t="s">
-        <v>835</v>
       </c>
       <c r="J174" s="199">
         <v>1</v>
@@ -11501,7 +11543,7 @@
       </c>
       <c r="M174" s="199"/>
       <c r="N174" s="211" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="O174" s="212"/>
       <c r="P174" s="197" t="s">
@@ -11509,12 +11551,12 @@
       </c>
     </row>
     <row r="175" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C175" s="238"/>
+      <c r="C175" s="239"/>
       <c r="D175" s="189" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E175" s="196" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="F175" s="25"/>
       <c r="G175" s="25"/>
@@ -11529,22 +11571,22 @@
       <c r="P175" s="197"/>
     </row>
     <row r="176" spans="3:16" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="C176" s="238"/>
+      <c r="C176" s="239"/>
       <c r="D176" s="189" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E176" s="17" t="s">
         <v>362</v>
       </c>
       <c r="F176" s="25" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G176" s="25"/>
       <c r="H176" s="25" t="s">
         <v>368</v>
       </c>
       <c r="I176" s="217" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="J176" s="71">
         <v>9</v>
@@ -11565,22 +11607,22 @@
       <c r="P176" s="197"/>
     </row>
     <row r="177" spans="3:17" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="C177" s="238"/>
+      <c r="C177" s="239"/>
       <c r="D177" s="189" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E177" s="17" t="s">
         <v>362</v>
       </c>
       <c r="F177" s="25" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="G177" s="25"/>
       <c r="H177" s="25" t="s">
         <v>368</v>
       </c>
       <c r="I177" s="217" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="J177" s="120">
         <v>4</v>
@@ -11601,22 +11643,22 @@
       <c r="P177" s="197"/>
     </row>
     <row r="178" spans="3:17" ht="24" x14ac:dyDescent="0.25">
-      <c r="C178" s="238"/>
+      <c r="C178" s="239"/>
       <c r="D178" s="189" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E178" s="17" t="s">
         <v>352</v>
       </c>
       <c r="F178" s="25" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G178" s="25"/>
       <c r="H178" s="198" t="s">
         <v>379</v>
       </c>
       <c r="I178" s="198" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J178" s="199">
         <v>6</v>
@@ -11637,22 +11679,22 @@
       <c r="P178" s="197"/>
     </row>
     <row r="179" spans="3:17" ht="24" x14ac:dyDescent="0.25">
-      <c r="C179" s="239"/>
+      <c r="C179" s="240"/>
       <c r="D179" s="189" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E179" s="17" t="s">
         <v>352</v>
       </c>
       <c r="F179" s="25" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G179" s="25"/>
       <c r="H179" s="198" t="s">
         <v>379</v>
       </c>
       <c r="I179" s="198" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="J179" s="212">
         <v>4</v>
@@ -11673,7 +11715,7 @@
       <c r="P179" s="197"/>
     </row>
     <row r="180" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C180" s="237">
+      <c r="C180" s="238">
         <v>43609</v>
       </c>
       <c r="D180" s="192"/>
@@ -11691,9 +11733,9 @@
       <c r="P180" s="195"/>
     </row>
     <row r="181" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C181" s="238"/>
+      <c r="C181" s="239"/>
       <c r="D181" s="189" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E181" s="17" t="s">
         <v>396</v>
@@ -11706,7 +11748,7 @@
         <v>398</v>
       </c>
       <c r="I181" s="198" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="J181" s="199">
         <v>1</v>
@@ -11716,7 +11758,7 @@
       </c>
       <c r="L181" s="26"/>
       <c r="M181" s="198" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="N181" s="200" t="s">
         <v>565</v>
@@ -11725,32 +11767,32 @@
       <c r="P181" s="197"/>
     </row>
     <row r="182" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C182" s="239"/>
+      <c r="C182" s="240"/>
       <c r="D182" s="189" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E182" s="17" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F182" s="230" t="s">
         <v>1004</v>
-      </c>
-      <c r="F182" s="230" t="s">
-        <v>1005</v>
       </c>
       <c r="G182" s="25"/>
       <c r="H182" s="25" t="s">
         <v>398</v>
       </c>
       <c r="I182" s="231" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="J182" s="26">
         <v>1</v>
       </c>
       <c r="K182" s="25" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="L182" s="26"/>
       <c r="M182" s="25" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="N182" s="27" t="s">
         <v>565</v>
@@ -11759,7 +11801,7 @@
       <c r="P182" s="197"/>
     </row>
     <row r="183" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C183" s="237">
+      <c r="C183" s="238">
         <v>43615</v>
       </c>
       <c r="D183" s="192"/>
@@ -11777,22 +11819,22 @@
       <c r="P183" s="195"/>
     </row>
     <row r="184" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C184" s="238"/>
+      <c r="C184" s="239"/>
       <c r="D184" s="189" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E184" s="17" t="s">
         <v>396</v>
       </c>
       <c r="F184" s="25" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="G184" s="25"/>
       <c r="H184" s="198" t="s">
         <v>398</v>
       </c>
       <c r="I184" s="198" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="J184" s="199">
         <v>1</v>
@@ -11802,22 +11844,22 @@
       </c>
       <c r="L184" s="26"/>
       <c r="M184" s="198" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="N184" s="200" t="s">
         <v>565</v>
       </c>
       <c r="O184" s="200"/>
       <c r="P184" s="197"/>
-      <c r="Q184" s="248"/>
+      <c r="Q184" s="237"/>
     </row>
     <row r="185" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C185" s="238"/>
+      <c r="C185" s="239"/>
       <c r="D185" s="189" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E185" s="196" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F185" s="25"/>
       <c r="G185" s="25"/>
@@ -11830,25 +11872,25 @@
       <c r="N185" s="27"/>
       <c r="O185" s="27"/>
       <c r="P185" s="197"/>
-      <c r="Q185" s="248"/>
+      <c r="Q185" s="237"/>
     </row>
     <row r="186" spans="3:17" ht="24" x14ac:dyDescent="0.25">
-      <c r="C186" s="238"/>
+      <c r="C186" s="239"/>
       <c r="D186" s="189" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E186" s="17" t="s">
         <v>276</v>
       </c>
       <c r="F186" s="25" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="G186" s="25"/>
       <c r="H186" s="198" t="s">
         <v>331</v>
       </c>
       <c r="I186" s="198" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="J186" s="199">
         <v>4</v>
@@ -11867,25 +11909,25 @@
       </c>
       <c r="O186" s="200"/>
       <c r="P186" s="197"/>
-      <c r="Q186" s="248"/>
+      <c r="Q186" s="237"/>
     </row>
     <row r="187" spans="3:17" ht="24" x14ac:dyDescent="0.25">
-      <c r="C187" s="238"/>
+      <c r="C187" s="239"/>
       <c r="D187" s="189" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E187" s="17" t="s">
         <v>276</v>
       </c>
       <c r="F187" s="25" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="G187" s="25"/>
       <c r="H187" s="198" t="s">
         <v>331</v>
       </c>
       <c r="I187" s="198" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="J187" s="199">
         <v>3</v>
@@ -11904,12 +11946,12 @@
       </c>
       <c r="O187" s="200"/>
       <c r="P187" s="197"/>
-      <c r="Q187" s="248"/>
+      <c r="Q187" s="237"/>
     </row>
     <row r="188" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C188" s="238"/>
+      <c r="C188" s="239"/>
       <c r="D188" s="189" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E188" s="17"/>
       <c r="F188" s="25"/>
@@ -11923,25 +11965,25 @@
       <c r="N188" s="200"/>
       <c r="O188" s="200"/>
       <c r="P188" s="197"/>
-      <c r="Q188" s="248"/>
+      <c r="Q188" s="237"/>
     </row>
     <row r="189" spans="3:17" ht="24" x14ac:dyDescent="0.25">
-      <c r="C189" s="238"/>
+      <c r="C189" s="239"/>
       <c r="D189" s="189" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E189" s="17" t="s">
         <v>276</v>
       </c>
       <c r="F189" s="215" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="G189" s="216"/>
       <c r="H189" s="211" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="I189" s="211" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="J189" s="199">
         <v>1</v>
@@ -11956,18 +11998,18 @@
         <v>20</v>
       </c>
       <c r="N189" s="211" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="O189" s="200"/>
       <c r="P189" s="196" t="s">
-        <v>1011</v>
-      </c>
-      <c r="Q189" s="248"/>
+        <v>1010</v>
+      </c>
+      <c r="Q189" s="237"/>
     </row>
     <row r="190" spans="3:17" ht="36" x14ac:dyDescent="0.25">
-      <c r="C190" s="238"/>
+      <c r="C190" s="239"/>
       <c r="D190" s="189" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E190" s="17" t="s">
         <v>486</v>
@@ -11980,7 +12022,7 @@
         <v>168</v>
       </c>
       <c r="I190" s="198" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="J190" s="199">
         <v>7</v>
@@ -11997,12 +12039,12 @@
       </c>
       <c r="O190" s="200"/>
       <c r="P190" s="197"/>
-      <c r="Q190" s="248"/>
+      <c r="Q190" s="237"/>
     </row>
     <row r="191" spans="3:17" ht="36" x14ac:dyDescent="0.25">
-      <c r="C191" s="239"/>
+      <c r="C191" s="240"/>
       <c r="D191" s="189" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E191" s="17" t="s">
         <v>486</v>
@@ -12015,7 +12057,7 @@
         <v>168</v>
       </c>
       <c r="I191" s="198" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="J191" s="199">
         <v>6</v>
@@ -12032,10 +12074,101 @@
       </c>
       <c r="O191" s="200"/>
       <c r="P191" s="197"/>
-      <c r="Q191" s="248"/>
+      <c r="Q191" s="237"/>
+    </row>
+    <row r="192" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C192" s="238">
+        <v>43626</v>
+      </c>
+      <c r="D192" s="192"/>
+      <c r="E192" s="193"/>
+      <c r="F192" s="194"/>
+      <c r="G192" s="193"/>
+      <c r="H192" s="193"/>
+      <c r="I192" s="193"/>
+      <c r="J192" s="193"/>
+      <c r="K192" s="193"/>
+      <c r="L192" s="193"/>
+      <c r="M192" s="193"/>
+      <c r="N192" s="193"/>
+      <c r="O192" s="193"/>
+      <c r="P192" s="195"/>
+    </row>
+    <row r="193" spans="3:16" ht="36" x14ac:dyDescent="0.25">
+      <c r="C193" s="239"/>
+      <c r="D193" s="189" t="s">
+        <v>687</v>
+      </c>
+      <c r="E193" s="17" t="s">
+        <v>429</v>
+      </c>
+      <c r="F193" s="25" t="s">
+        <v>964</v>
+      </c>
+      <c r="G193" s="25"/>
+      <c r="H193" s="198" t="s">
+        <v>621</v>
+      </c>
+      <c r="I193" s="198" t="s">
+        <v>614</v>
+      </c>
+      <c r="J193" s="199">
+        <v>4</v>
+      </c>
+      <c r="K193" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="L193" s="26"/>
+      <c r="M193" s="198" t="s">
+        <v>8</v>
+      </c>
+      <c r="N193" s="200" t="s">
+        <v>1015</v>
+      </c>
+      <c r="O193" s="200"/>
+      <c r="P193" s="197" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="194" spans="3:16" ht="36" x14ac:dyDescent="0.25">
+      <c r="C194" s="240"/>
+      <c r="D194" s="189" t="s">
+        <v>691</v>
+      </c>
+      <c r="E194" s="17" t="s">
+        <v>429</v>
+      </c>
+      <c r="F194" s="25" t="s">
+        <v>964</v>
+      </c>
+      <c r="G194" s="25"/>
+      <c r="H194" s="198" t="s">
+        <v>621</v>
+      </c>
+      <c r="I194" s="198" t="s">
+        <v>614</v>
+      </c>
+      <c r="J194" s="199">
+        <v>4</v>
+      </c>
+      <c r="K194" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="L194" s="26"/>
+      <c r="M194" s="198" t="s">
+        <v>8</v>
+      </c>
+      <c r="N194" s="200" t="s">
+        <v>1014</v>
+      </c>
+      <c r="O194" s="200"/>
+      <c r="P194" s="197" t="s">
+        <v>584</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="C192:C194"/>
     <mergeCell ref="C183:C191"/>
     <mergeCell ref="D7:D15"/>
     <mergeCell ref="D100:D105"/>
@@ -12059,11 +12192,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N151"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="C110" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="7" topLeftCell="C89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="T106" sqref="T106"/>
+      <selection pane="bottomRight" activeCell="T101" sqref="T101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -12116,21 +12249,21 @@
       <c r="M3" s="2"/>
     </row>
     <row r="4" spans="2:14" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="242" t="s">
+      <c r="B4" s="248" t="s">
         <v>225</v>
       </c>
-      <c r="C4" s="242"/>
-      <c r="D4" s="242"/>
-      <c r="E4" s="242"/>
-      <c r="F4" s="242"/>
-      <c r="G4" s="242"/>
-      <c r="H4" s="242"/>
-      <c r="I4" s="242"/>
-      <c r="J4" s="242"/>
-      <c r="K4" s="242"/>
-      <c r="L4" s="242"/>
-      <c r="M4" s="242"/>
-      <c r="N4" s="242"/>
+      <c r="C4" s="248"/>
+      <c r="D4" s="248"/>
+      <c r="E4" s="248"/>
+      <c r="F4" s="248"/>
+      <c r="G4" s="248"/>
+      <c r="H4" s="248"/>
+      <c r="I4" s="248"/>
+      <c r="J4" s="248"/>
+      <c r="K4" s="248"/>
+      <c r="L4" s="248"/>
+      <c r="M4" s="248"/>
+      <c r="N4" s="248"/>
     </row>
     <row r="5" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B5" s="3"/>
@@ -12154,7 +12287,7 @@
       <c r="D6" s="11"/>
       <c r="E6" s="4"/>
       <c r="F6" s="12" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
@@ -12164,7 +12297,7 @@
         <v>227</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="M6" s="9"/>
     </row>
@@ -12217,7 +12350,7 @@
         <v>241</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="19"/>
@@ -12236,30 +12369,30 @@
       <c r="B9" s="16">
         <v>2</v>
       </c>
-      <c r="C9" s="243" t="s">
+      <c r="C9" s="232" t="s">
         <v>509</v>
       </c>
       <c r="D9" s="230" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="E9" s="230"/>
-      <c r="F9" s="244" t="s">
+      <c r="F9" s="233" t="s">
         <v>187</v>
       </c>
-      <c r="G9" s="244" t="s">
+      <c r="G9" s="233" t="s">
         <v>188</v>
       </c>
-      <c r="H9" s="245">
+      <c r="H9" s="234">
         <v>1</v>
       </c>
       <c r="I9" s="230" t="s">
         <v>253</v>
       </c>
-      <c r="J9" s="246"/>
-      <c r="K9" s="244" t="s">
+      <c r="J9" s="235"/>
+      <c r="K9" s="233" t="s">
         <v>189</v>
       </c>
-      <c r="L9" s="247" t="s">
+      <c r="L9" s="236" t="s">
         <v>189</v>
       </c>
       <c r="M9" s="200"/>
@@ -12273,7 +12406,7 @@
         <v>516</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="E10" s="25"/>
       <c r="F10" s="25" t="s">
@@ -12308,7 +12441,7 @@
         <v>286</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="E11" s="25"/>
       <c r="F11" s="198" t="s">
@@ -12343,7 +12476,7 @@
         <v>286</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="E12" s="25"/>
       <c r="F12" s="198" t="s">
@@ -12378,14 +12511,14 @@
         <v>298</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E13" s="25"/>
       <c r="F13" s="198" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="G13" s="201" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H13" s="199">
         <v>7</v>
@@ -12400,7 +12533,7 @@
         <v>20</v>
       </c>
       <c r="L13" s="200" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="M13" s="200"/>
       <c r="N13" s="197"/>
@@ -12413,11 +12546,11 @@
         <v>285</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="E14" s="25"/>
       <c r="F14" s="198" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G14" s="201" t="s">
         <v>585</v>
@@ -12448,14 +12581,14 @@
         <v>286</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="E15" s="25"/>
       <c r="F15" s="198" t="s">
         <v>292</v>
       </c>
       <c r="G15" s="198" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H15" s="199">
         <v>4</v>
@@ -12483,7 +12616,7 @@
         <v>276</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="E16" s="25"/>
       <c r="F16" s="198" t="s">
@@ -12518,14 +12651,14 @@
         <v>286</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="E17" s="25"/>
       <c r="F17" s="198" t="s">
         <v>287</v>
       </c>
       <c r="G17" s="201" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="H17" s="203">
         <v>12</v>
@@ -12553,7 +12686,7 @@
         <v>285</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E18" s="25"/>
       <c r="F18" s="198" t="s">
@@ -12588,7 +12721,7 @@
         <v>298</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E19" s="25"/>
       <c r="F19" s="198" t="s">
@@ -12623,7 +12756,7 @@
         <v>298</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E20" s="25"/>
       <c r="F20" s="198" t="s">
@@ -12658,14 +12791,14 @@
         <v>298</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="E21" s="25"/>
       <c r="F21" s="198" t="s">
+        <v>623</v>
+      </c>
+      <c r="G21" s="198" t="s">
         <v>624</v>
-      </c>
-      <c r="G21" s="198" t="s">
-        <v>625</v>
       </c>
       <c r="H21" s="199">
         <v>2</v>
@@ -12680,7 +12813,7 @@
         <v>20</v>
       </c>
       <c r="L21" s="200" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="M21" s="200"/>
       <c r="N21" s="197"/>
@@ -12693,7 +12826,7 @@
         <v>298</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="E22" s="25"/>
       <c r="F22" s="198" t="s">
@@ -12728,7 +12861,7 @@
         <v>285</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="E23" s="25"/>
       <c r="F23" s="198" t="s">
@@ -12750,7 +12883,7 @@
         <v>20</v>
       </c>
       <c r="L23" s="200" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="M23" s="200"/>
       <c r="N23" s="197"/>
@@ -12763,7 +12896,7 @@
         <v>255</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E24" s="25"/>
       <c r="F24" s="198" t="s">
@@ -12796,7 +12929,7 @@
         <v>286</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="E25" s="25"/>
       <c r="F25" s="198" t="s">
@@ -12831,7 +12964,7 @@
         <v>298</v>
       </c>
       <c r="D26" s="208" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="E26" s="25"/>
       <c r="F26" s="198" t="s">
@@ -12866,7 +12999,7 @@
         <v>298</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E27" s="25"/>
       <c r="F27" s="198" t="s">
@@ -12901,7 +13034,7 @@
         <v>255</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E28" s="25"/>
       <c r="F28" s="198" t="s">
@@ -12934,7 +13067,7 @@
         <v>298</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E29" s="25"/>
       <c r="F29" s="198" t="s">
@@ -12969,7 +13102,7 @@
         <v>285</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="E30" s="25"/>
       <c r="F30" s="198" t="s">
@@ -13004,14 +13137,14 @@
         <v>285</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="E31" s="25"/>
       <c r="F31" s="198" t="s">
         <v>331</v>
       </c>
       <c r="G31" s="198" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="H31" s="199">
         <v>3</v>
@@ -13039,7 +13172,7 @@
         <v>286</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="E32" s="25"/>
       <c r="F32" s="198" t="s">
@@ -13074,7 +13207,7 @@
         <v>286</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="E33" s="25"/>
       <c r="F33" s="198" t="s">
@@ -13109,7 +13242,7 @@
         <v>298</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E34" s="25"/>
       <c r="F34" s="25" t="s">
@@ -13144,7 +13277,7 @@
         <v>276</v>
       </c>
       <c r="D35" s="205" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="E35" s="205"/>
       <c r="F35" s="205" t="s">
@@ -13179,7 +13312,7 @@
         <v>298</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="E36" s="25"/>
       <c r="F36" s="25" t="s">
@@ -13214,7 +13347,7 @@
         <v>276</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="E37" s="25"/>
       <c r="F37" s="25" t="s">
@@ -13249,7 +13382,7 @@
         <v>286</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="E38" s="25"/>
       <c r="F38" s="25" t="s">
@@ -13284,7 +13417,7 @@
         <v>301</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="E39" s="25"/>
       <c r="F39" s="25" t="s">
@@ -13319,7 +13452,7 @@
         <v>285</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="E40" s="25"/>
       <c r="F40" s="25" t="s">
@@ -13354,7 +13487,7 @@
         <v>286</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="E41" s="25"/>
       <c r="F41" s="25" t="s">
@@ -13389,11 +13522,11 @@
         <v>298</v>
       </c>
       <c r="D42" s="25" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="E42" s="25"/>
       <c r="F42" s="25" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="G42" s="25" t="s">
         <v>319</v>
@@ -13426,7 +13559,7 @@
         <v>276</v>
       </c>
       <c r="D43" s="25" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="E43" s="25"/>
       <c r="F43" s="209" t="s">
@@ -13463,7 +13596,7 @@
         <v>285</v>
       </c>
       <c r="D44" s="25" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="E44" s="25"/>
       <c r="F44" s="209" t="s">
@@ -13500,7 +13633,7 @@
         <v>276</v>
       </c>
       <c r="D45" s="25" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E45" s="25"/>
       <c r="F45" s="209" t="s">
@@ -13537,7 +13670,7 @@
         <v>298</v>
       </c>
       <c r="D46" s="25" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E46" s="25"/>
       <c r="F46" s="198" t="s">
@@ -13574,7 +13707,7 @@
         <v>276</v>
       </c>
       <c r="D47" s="25" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="E47" s="25"/>
       <c r="F47" s="209" t="s">
@@ -13611,7 +13744,7 @@
         <v>286</v>
       </c>
       <c r="D48" s="25" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="E48" s="25"/>
       <c r="F48" s="198" t="s">
@@ -13648,7 +13781,7 @@
         <v>285</v>
       </c>
       <c r="D49" s="25" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="E49" s="25"/>
       <c r="F49" s="209" t="s">
@@ -13683,14 +13816,14 @@
         <v>276</v>
       </c>
       <c r="D50" s="215" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="E50" s="216"/>
       <c r="F50" s="211" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="G50" s="211" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="H50" s="199">
         <v>1</v>
@@ -13705,7 +13838,7 @@
         <v>20</v>
       </c>
       <c r="L50" s="211" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="M50" s="200"/>
       <c r="N50" s="197"/>
@@ -13753,11 +13886,11 @@
         <v>358</v>
       </c>
       <c r="D52" s="25" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="E52" s="25"/>
       <c r="F52" s="198" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="G52" s="198" t="s">
         <v>570</v>
@@ -13788,11 +13921,11 @@
         <v>358</v>
       </c>
       <c r="D53" s="25" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="E53" s="25"/>
       <c r="F53" s="198" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G53" s="198" t="s">
         <v>569</v>
@@ -13823,11 +13956,11 @@
         <v>358</v>
       </c>
       <c r="D54" s="25" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="E54" s="25"/>
       <c r="F54" s="198" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="G54" s="201" t="s">
         <v>568</v>
@@ -13845,7 +13978,7 @@
         <v>4</v>
       </c>
       <c r="L54" s="200" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="M54" s="200"/>
       <c r="N54" s="197"/>
@@ -13858,7 +13991,7 @@
         <v>358</v>
       </c>
       <c r="D55" s="25" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="E55" s="25"/>
       <c r="F55" s="198" t="s">
@@ -13893,11 +14026,11 @@
         <v>362</v>
       </c>
       <c r="D56" s="25" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="E56" s="25"/>
       <c r="F56" s="198" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G56" s="198" t="s">
         <v>571</v>
@@ -13915,7 +14048,7 @@
         <v>4</v>
       </c>
       <c r="L56" s="200" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="M56" s="200"/>
       <c r="N56" s="197"/>
@@ -13928,7 +14061,7 @@
         <v>358</v>
       </c>
       <c r="D57" s="25" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E57" s="25"/>
       <c r="F57" s="198" t="s">
@@ -13963,7 +14096,7 @@
         <v>352</v>
       </c>
       <c r="D58" s="25" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="E58" s="25"/>
       <c r="F58" s="198" t="s">
@@ -13998,7 +14131,7 @@
         <v>352</v>
       </c>
       <c r="D59" s="25" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="E59" s="25"/>
       <c r="F59" s="198" t="s">
@@ -14033,11 +14166,11 @@
         <v>352</v>
       </c>
       <c r="D60" s="25" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="E60" s="25"/>
       <c r="F60" s="198" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="G60" s="198" t="s">
         <v>566</v>
@@ -14068,11 +14201,11 @@
         <v>352</v>
       </c>
       <c r="D61" s="25" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E61" s="25"/>
       <c r="F61" s="198" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="G61" s="198" t="s">
         <v>567</v>
@@ -14103,7 +14236,7 @@
         <v>362</v>
       </c>
       <c r="D62" s="25" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="E62" s="25"/>
       <c r="F62" s="198" t="s">
@@ -14138,7 +14271,7 @@
         <v>358</v>
       </c>
       <c r="D63" s="25" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="E63" s="25"/>
       <c r="F63" s="198" t="s">
@@ -14173,7 +14306,7 @@
         <v>358</v>
       </c>
       <c r="D64" s="25" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="E64" s="25"/>
       <c r="F64" s="198" t="s">
@@ -14208,7 +14341,7 @@
         <v>281</v>
       </c>
       <c r="D65" s="25" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="E65" s="25"/>
       <c r="F65" s="198" t="s">
@@ -14243,7 +14376,7 @@
         <v>362</v>
       </c>
       <c r="D66" s="25" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="E66" s="25"/>
       <c r="F66" s="198" t="s">
@@ -14278,14 +14411,14 @@
         <v>362</v>
       </c>
       <c r="D67" s="25" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="E67" s="25"/>
       <c r="F67" s="198" t="s">
         <v>73</v>
       </c>
       <c r="G67" s="198" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="H67" s="212">
         <v>5</v>
@@ -14315,14 +14448,14 @@
         <v>352</v>
       </c>
       <c r="D68" s="25" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="E68" s="25"/>
       <c r="F68" s="198" t="s">
         <v>379</v>
       </c>
       <c r="G68" s="198" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="H68" s="212">
         <v>4</v>
@@ -14350,7 +14483,7 @@
         <v>352</v>
       </c>
       <c r="D69" s="25" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="E69" s="25"/>
       <c r="F69" s="25" t="s">
@@ -14385,11 +14518,11 @@
         <v>352</v>
       </c>
       <c r="D70" s="25" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="E70" s="25"/>
       <c r="F70" s="198" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="G70" s="198" t="s">
         <v>363</v>
@@ -14407,7 +14540,7 @@
         <v>4</v>
       </c>
       <c r="L70" s="200" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="M70" s="200"/>
       <c r="N70" s="36"/>
@@ -14420,14 +14553,14 @@
         <v>362</v>
       </c>
       <c r="D71" s="25" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="E71" s="25"/>
       <c r="F71" s="25" t="s">
         <v>368</v>
       </c>
       <c r="G71" s="124" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="H71" s="120">
         <v>4</v>
@@ -14455,7 +14588,7 @@
         <v>372</v>
       </c>
       <c r="D72" s="25" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="E72" s="25"/>
       <c r="F72" s="25" t="s">
@@ -14565,7 +14698,7 @@
         <v>481</v>
       </c>
       <c r="G75" s="229" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="H75" s="212">
         <v>1</v>
@@ -14611,7 +14744,7 @@
         <v>114</v>
       </c>
       <c r="L76" s="200" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="M76" s="200"/>
       <c r="N76" s="197"/>
@@ -14663,7 +14796,7 @@
       </c>
       <c r="E78" s="25"/>
       <c r="F78" s="25" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="G78" s="25" t="s">
         <v>522</v>
@@ -14766,7 +14899,7 @@
       </c>
       <c r="E81" s="25"/>
       <c r="F81" s="198" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="G81" s="198" t="s">
         <v>604</v>
@@ -14784,7 +14917,7 @@
         <v>109</v>
       </c>
       <c r="L81" s="200" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="M81" s="200"/>
       <c r="N81" s="197"/>
@@ -15264,7 +15397,7 @@
         <v>415</v>
       </c>
       <c r="L95" s="27" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="M95" s="27"/>
       <c r="N95" s="197"/>
@@ -15382,7 +15515,7 @@
         <v>270</v>
       </c>
       <c r="D99" s="25" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E99" s="25"/>
       <c r="F99" s="198" t="s">
@@ -15419,7 +15552,7 @@
         <v>413</v>
       </c>
       <c r="D100" s="25" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="E100" s="82"/>
       <c r="F100" s="223" t="s">
@@ -15450,7 +15583,7 @@
         <v>429</v>
       </c>
       <c r="D101" s="25" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="E101" s="25"/>
       <c r="F101" s="198" t="s">
@@ -15470,7 +15603,7 @@
         <v>8</v>
       </c>
       <c r="L101" s="200" t="s">
-        <v>622</v>
+        <v>1016</v>
       </c>
       <c r="M101" s="200"/>
       <c r="N101" s="197" t="s">
@@ -15485,7 +15618,7 @@
         <v>408</v>
       </c>
       <c r="D102" s="25" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E102" s="25"/>
       <c r="F102" s="25" t="s">
@@ -15520,7 +15653,7 @@
         <v>528</v>
       </c>
       <c r="D103" s="25" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E103" s="25"/>
       <c r="F103" s="198" t="s">
@@ -15557,7 +15690,7 @@
         <v>203</v>
       </c>
       <c r="D104" s="217" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E104" s="217"/>
       <c r="F104" s="198" t="s">
@@ -15576,14 +15709,14 @@
         <v>247</v>
       </c>
       <c r="K104" s="198" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="L104" s="200" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="M104" s="200"/>
       <c r="N104" s="197" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="105" spans="2:14" ht="24" x14ac:dyDescent="0.3">
@@ -15634,7 +15767,7 @@
         <v>421</v>
       </c>
       <c r="G106" s="198" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H106" s="199">
         <v>1</v>
@@ -15693,7 +15826,7 @@
         <v>402</v>
       </c>
       <c r="D108" s="25" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="E108" s="25"/>
       <c r="F108" s="198" t="s">
@@ -15726,7 +15859,7 @@
         <v>399</v>
       </c>
       <c r="D109" s="25" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="E109" s="25"/>
       <c r="F109" s="198" t="s">
@@ -15759,14 +15892,14 @@
         <v>395</v>
       </c>
       <c r="D110" s="25" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E110" s="25"/>
       <c r="F110" s="25" t="s">
+        <v>885</v>
+      </c>
+      <c r="G110" s="25" t="s">
         <v>886</v>
-      </c>
-      <c r="G110" s="25" t="s">
-        <v>887</v>
       </c>
       <c r="H110" s="26">
         <v>5</v>
@@ -15776,10 +15909,10 @@
       </c>
       <c r="J110" s="26"/>
       <c r="K110" s="25" t="s">
+        <v>981</v>
+      </c>
+      <c r="L110" s="27" t="s">
         <v>982</v>
-      </c>
-      <c r="L110" s="27" t="s">
-        <v>983</v>
       </c>
       <c r="M110" s="27"/>
       <c r="N110" s="197" t="s">
@@ -15867,7 +16000,7 @@
         <v>168</v>
       </c>
       <c r="G113" s="198" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="H113" s="212">
         <v>6</v>
@@ -15933,7 +16066,7 @@
         <v>487</v>
       </c>
       <c r="G115" s="227" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H115" s="212">
         <v>6</v>
@@ -16031,7 +16164,7 @@
       </c>
       <c r="E118" s="25"/>
       <c r="F118" s="198" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="G118" s="198" t="s">
         <v>441</v>
@@ -16080,7 +16213,7 @@
         <v>119</v>
       </c>
       <c r="L119" s="224" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="M119" s="200"/>
       <c r="N119" s="197"/>
@@ -16113,7 +16246,7 @@
         <v>119</v>
       </c>
       <c r="L120" s="224" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="M120" s="200"/>
       <c r="N120" s="197"/>
@@ -16146,7 +16279,7 @@
         <v>119</v>
       </c>
       <c r="L121" s="224" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="M121" s="200"/>
       <c r="N121" s="197"/>
@@ -16179,7 +16312,7 @@
         <v>119</v>
       </c>
       <c r="L122" s="224" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="M122" s="200"/>
       <c r="N122" s="197"/>
@@ -16196,7 +16329,7 @@
       </c>
       <c r="E123" s="25"/>
       <c r="F123" s="198" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G123" s="198" t="s">
         <v>572</v>
@@ -16264,7 +16397,7 @@
       </c>
       <c r="E125" s="25"/>
       <c r="F125" s="198" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="G125" s="198" t="s">
         <v>608</v>
@@ -16418,7 +16551,7 @@
         <v>460</v>
       </c>
       <c r="L129" s="27" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="M129" s="27"/>
       <c r="N129" s="197"/>
@@ -16746,7 +16879,7 @@
         <v>523</v>
       </c>
       <c r="D139" s="25" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E139" s="25"/>
       <c r="F139" s="25" t="s">
@@ -16781,14 +16914,14 @@
         <v>440</v>
       </c>
       <c r="D140" s="25" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="E140" s="25"/>
       <c r="F140" s="198" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="G140" s="227" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H140" s="212">
         <v>2</v>
@@ -16803,11 +16936,11 @@
         <v>93</v>
       </c>
       <c r="L140" s="225" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="M140" s="200"/>
       <c r="N140" s="197" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="141" spans="2:14" ht="14.25" x14ac:dyDescent="0.3">
@@ -16818,7 +16951,7 @@
         <v>509</v>
       </c>
       <c r="D141" s="25" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="E141" s="25"/>
       <c r="F141" s="209" t="s">
@@ -16853,7 +16986,7 @@
         <v>509</v>
       </c>
       <c r="D142" s="25" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="E142" s="25"/>
       <c r="F142" s="209" t="s">
@@ -16888,7 +17021,7 @@
         <v>509</v>
       </c>
       <c r="D143" s="25" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="E143" s="25"/>
       <c r="F143" s="198" t="s">
@@ -16921,14 +17054,14 @@
         <v>509</v>
       </c>
       <c r="D144" s="25" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="E144" s="25"/>
       <c r="F144" s="198" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="G144" s="198" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="H144" s="199">
         <v>1</v>
@@ -16938,10 +17071,10 @@
       </c>
       <c r="J144" s="26"/>
       <c r="K144" s="198" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="L144" s="204" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="M144" s="200"/>
       <c r="N144" s="197"/>
@@ -16954,7 +17087,7 @@
         <v>417</v>
       </c>
       <c r="D145" s="25" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="E145" s="25"/>
       <c r="F145" s="198" t="s">
@@ -16987,7 +17120,7 @@
         <v>264</v>
       </c>
       <c r="D146" s="25" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="E146" s="25"/>
       <c r="F146" s="198" t="s">
@@ -17022,14 +17155,14 @@
         <v>396</v>
       </c>
       <c r="D147" s="25" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="E147" s="25"/>
       <c r="F147" s="220" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="G147" s="220" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="H147" s="221">
         <v>1</v>
@@ -17039,14 +17172,14 @@
       </c>
       <c r="J147" s="26"/>
       <c r="K147" s="220" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="L147" s="222" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="M147" s="222"/>
       <c r="N147" s="197" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="148" spans="2:14" ht="14.25" x14ac:dyDescent="0.3">
@@ -17122,17 +17255,17 @@
         <v>143</v>
       </c>
       <c r="C150" s="17" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D150" s="25" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="E150" s="25"/>
       <c r="F150" s="198" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="G150" s="200" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H150" s="199">
         <v>3</v>
